--- a/OREI_files/40-herd data/model building_sig associated predictors for each outcome.xlsx
+++ b/OREI_files/40-herd data/model building_sig associated predictors for each outcome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="674" documentId="8_{09F0DE7B-CFA3-4987-B447-7D54FB946415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C84A89D4-A9A1-4C61-8CD9-84999CED52BF}"/>
+  <xr:revisionPtr revIDLastSave="764" documentId="8_{09F0DE7B-CFA3-4987-B447-7D54FB946415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE553A31-45BB-48BE-9E34-3F8E91227D72}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70A6B132-0E5F-4BC0-9C1C-6E461B8947D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{70A6B132-0E5F-4BC0-9C1C-6E461B8947D6}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="179">
   <si>
     <t>raw SCC</t>
   </si>
@@ -694,13 +694,7 @@
     <t>4!</t>
   </si>
   <si>
-    <t>7!</t>
-  </si>
-  <si>
     <t>x deleted forestrip and towel type bc grps too small</t>
-  </si>
-  <si>
-    <t>6!</t>
   </si>
   <si>
     <t>x deleted towel type bc grps too small</t>
@@ -782,17 +776,137 @@
     <t>sig assoc var</t>
   </si>
   <si>
-    <t>* correlated with sig at p&lt;0.05</t>
-  </si>
-  <si>
-    <t>&lt;- also corr with freq_stall_scraping_wk</t>
+    <t>&lt;- no measurements for BP in depth_bedding_stalls, so not really helpful in model i'm trying to build</t>
+  </si>
+  <si>
+    <t>2!</t>
+  </si>
+  <si>
+    <t>&lt;- correlated at p&lt;0.05 with Facility_type</t>
+  </si>
+  <si>
+    <t>* lying_surface and depth_bedding_stalls correlated with sig at p&lt;0.05</t>
+  </si>
+  <si>
+    <t>* lying_surface correlated with Facility_type, so can't force these into model together</t>
+  </si>
+  <si>
+    <t>&lt;- correlated with herd_size_cat, AND no measurements for BP in depth_bedding_stalls, so not really helpful in model i'm trying to build</t>
+  </si>
+  <si>
+    <t>5!</t>
+  </si>
+  <si>
+    <t>* herd_size_cat correlated with depth_bedding_stalls, but ok to include 1 of the 2 in the model</t>
+  </si>
+  <si>
+    <t>* milking_sys and freq_stall_scraping_wk correlated with sig at p&lt;0.05</t>
+  </si>
+  <si>
+    <t>* corr with freq_stall_scraping_wk, but ok to include 1 in model</t>
+  </si>
+  <si>
+    <t>&lt;- correlated at p&lt;0.05 with sel_feed AND no measurements for BP in freq_gutter_cleaner_wk, so not really helpful in model i'm trying to build</t>
+  </si>
+  <si>
+    <t>3!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Call:
+glm(formula = perc_IMI ~ factor(Facility_type) + factor(bedding_conditioner) + 
+    mean_hygiene, data = lu)
+Deviance Residuals: 
+     Min        1Q    Median        3Q       Max  
+-12.4371   -3.8089    0.5593    4.8460    9.5325  
+Coefficients:
+                             Estimate Std. Error t value Pr(&gt;|t|)  
+(Intercept)                    0.8481    10.6161   0.080   0.9375  
+factor(Facility_type)FS        1.8142     5.6778   0.320   0.7540  
+factor(Facility_type)TS       -2.4283     5.3417  -0.455   0.6564  
+factor(bedding_conditioner)y   8.0314     4.1699   1.926   0.0747 .
+mean_hygiene                   9.8005     4.7051   2.083   0.0561 .
+---
+Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1
+(Dispersion parameter for gaussian family taken to be 48.0866)
+    Null deviance: 1081.94  on 18  degrees of freedom
+Residual deviance:  673.21  on 14  degrees of freedom
+  (2 observations deleted due to missingness)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AIC: 133.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Number of Fisher Scoring iterations: 2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of Variance Table
+Model 1: perc_IMI ~ factor(Facility_type) + factor(bedding_conditioner) + 
+    mean_hygiene
+Model 2: perc_IMI ~ factor(Facility_type)
+  Res.Df     RSS Df Sum of Sq      F  Pr(&gt;F)  
+1     14  673.21                              
+2     16 1068.36 -2   -395.15 4.1088 0.03945 *
+--- </t>
+  </si>
+  <si>
+    <t>* no significant predictors, but full model had lowest AIC; f-test between full and reduced model showed full model "better" than reduced model (p&lt;0.05)</t>
+  </si>
+  <si>
+    <t>Call:
+glm(formula = milk_SCC_1.1000 ~ factor(Facility_type) + herd_size, 
+    data = lu)
+Deviance Residuals: 
+   Min      1Q  Median      3Q     Max  
+-74153  -31673   -4616   26740  102059  
+Coefficients:
+                        Estimate Std. Error t value Pr(&gt;|t|)  
+(Intercept)              22818.6    48135.9   0.474   0.6415  
+factor(Facility_type)FS  55383.7    29066.0   1.905   0.0738 .
+factor(Facility_type)TS  46764.3    26322.7   1.777   0.0935 .
+herd_size                 1284.6      654.5   1.963   0.0663 .
+---
+Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1
+(Dispersion parameter for gaussian family taken to be 2254719920)
+    Null deviance: 5.8178e+10  on 20  degrees of freedom
+Residual deviance: 3.8330e+10  on 17  degrees of freedom
+AIC: 517.42</t>
+  </si>
+  <si>
+    <t>Analysis of Variance Table
+Model 1: milk_SCC_1.1000 ~ factor(Facility_type) + herd_size
+Model 2: milk_SCC_1.1000 ~ factor(Facility_type)
+  Res.Df        RSS Df   Sum of Sq      F  Pr(&gt;F)  
+1     17 3.8330e+10                                
+2     18 4.7015e+10 -1 -8684694693 3.8518 0.06627 .</t>
+  </si>
+  <si>
+    <t>* no significant predictors, model with only herd_size had lowest AIC; f-test between full and reduced model showed herd_size model "NO better" than reduced model (p&gt;0.05)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +1022,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -947,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -991,6 +1127,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,6 +1246,7 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFCC00CC"/>
     </mruColors>
   </colors>
@@ -1395,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE4E8A1-91F0-493C-B6C5-6253FE79D7B7}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1789,7 @@
     </row>
     <row r="16" spans="1:13" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -1774,10 +1939,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1809,25 +1974,25 @@
         <v>145</v>
       </c>
       <c r="L33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A38" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -1835,7 +2000,7 @@
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -1859,7 +2024,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>36</v>
@@ -1873,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -1887,7 +2052,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>60</v>
@@ -1901,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>8</v>
@@ -1915,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>61</v>
@@ -1937,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -8717,10 +8882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409CBAA-804C-4C63-AC84-A223161001AB}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8737,144 +8902,375 @@
     <col min="13" max="13" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="H2" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D3" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F3" s="11">
         <v>21</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="11">
-        <v>8</v>
-      </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="11" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F5" s="11">
         <v>13</v>
       </c>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="11">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="19"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D9" s="13">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F9" s="9">
         <v>21</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F10" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F11" s="9">
         <v>13</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D12" s="8">
         <v>0.06</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E9" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="47.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B16" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="J16" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="3:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="3:16" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="J22" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C16:H32"/>
+    <mergeCell ref="J16:M19"/>
+    <mergeCell ref="J22:P26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8882,10 +9278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDB8B5-0DDB-4A36-895D-D0E63B9A0FFD}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8896,224 +9292,218 @@
     <col min="5" max="5" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="11">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="19"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E5" s="11">
+        <v>19</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5.9909999999999998E-3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9">
+        <v>19</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.8">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D11" s="8">
         <v>0.17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
+      <c r="F11">
         <v>19</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
+      <c r="I11" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="F3">
+      <c r="F12">
         <v>14</v>
       </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="F4">
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D14" s="7">
         <v>0.02</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F14" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F15" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="1" t="s">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="12">
-        <v>5.9909999999999998E-3</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="11">
-        <v>19</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D17" s="13">
         <v>0.1144</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F17" s="9">
         <v>18</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="13">
-        <v>9.2170000000000002E-2</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9">
-        <v>19</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="9">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -9121,54 +9511,72 @@
       <c r="C18" s="9"/>
       <c r="D18" s="13"/>
       <c r="E18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="13">
+        <v>9.2170000000000002E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F23" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="E19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="E20" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="2:6" ht="36" x14ac:dyDescent="0.8">
-      <c r="B25" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D26"/>
@@ -9275,29 +9683,18 @@
     <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D64"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCAFB01-DCB7-4006-A73D-45CA9C1A384C}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9308,250 +9705,284 @@
     <col min="5" max="5" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="39"/>
+      <c r="B3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2">
+      <c r="D3" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11">
         <v>18</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.18</v>
-      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="11">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="11" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F5" s="11">
-        <v>19</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="39"/>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="11">
+        <v>16</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="39"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="41"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
+      <c r="D9" s="8">
+        <v>0.06</v>
+      </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="E11" t="s">
         <v>66</v>
       </c>
-      <c r="F10">
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="9">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="11">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="11">
-        <v>12</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D15" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E14" s="11">
-        <v>16</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="D19" s="13">
         <v>0.05</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E19" s="9">
         <v>19</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4" ht="46" x14ac:dyDescent="1">
-      <c r="B19" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D21"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D22"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="46" x14ac:dyDescent="1">
+      <c r="B23" s="27" t="s">
+        <v>151</v>
+      </c>
       <c r="D23"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D24"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D26"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D27"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D28"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D32"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9560,10 +9991,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1892D7A6-F158-4E34-8BD7-49C347222B83}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9574,129 +10005,487 @@
     <col min="5" max="5" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="39"/>
+      <c r="B3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="39"/>
+      <c r="B6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="43">
+        <v>15</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="41"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D8" s="8">
         <v>0.08</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
+      <c r="F8">
         <v>19</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="E3" t="s">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="E9" t="s">
         <v>65</v>
       </c>
-      <c r="F3">
+      <c r="F9">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="E4" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="F4">
+      <c r="F10">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="D11" s="13">
         <v>0.09</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E11" s="9">
         <v>19</v>
       </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="61.5" x14ac:dyDescent="1.35">
-      <c r="B12" s="28" t="s">
-        <v>151</v>
-      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="14" spans="1:20" ht="61.5" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="B14" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="N14" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="5:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="N22" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="5:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="5:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+    </row>
+    <row r="28" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+    </row>
+    <row r="29" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+    </row>
+    <row r="30" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+    </row>
+    <row r="31" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E14:L36"/>
+    <mergeCell ref="N14:T19"/>
+    <mergeCell ref="N22:T26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AF16EE-24C7-49C9-9B7C-B3D94F95E62D}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9707,106 +10496,111 @@
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="5"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H1" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D6" s="13">
         <v>0.09</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F6" s="9">
         <v>19</v>
       </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="19"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F7" s="9">
         <v>8</v>
       </c>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="19"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F8" s="9">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="8">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -9831,98 +10625,103 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D15" s="13">
         <v>0.1474</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F15" s="9">
         <v>20</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="9" t="s">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F16" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="9" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F17" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>0.11</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>20</v>
       </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="20" spans="2:8" ht="36" x14ac:dyDescent="0.8">
-      <c r="B20" s="26" t="s">
-        <v>152</v>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="21" spans="2:8" ht="36" x14ac:dyDescent="0.8">
+      <c r="B21" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9930,10 +10729,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE602D1D-8AD5-4D27-82D9-4C8D4C22D9EE}">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9944,118 +10743,127 @@
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="H2" s="10" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="11">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D5" s="8">
         <v>0.19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="E4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
         <v>66</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D8" s="8">
         <v>0.01</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="E7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
         <v>77</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="D12" s="8">
         <v>0.19</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="61.5" x14ac:dyDescent="1.35">
-      <c r="B12" s="28" t="s">
-        <v>151</v>
+    <row r="14" spans="1:8" ht="61.5" x14ac:dyDescent="1.35">
+      <c r="B14" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B4">
+  <conditionalFormatting sqref="B5:B6">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10067,7 +10875,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/OREI_files/40-herd data/model building_sig associated predictors for each outcome.xlsx
+++ b/OREI_files/40-herd data/model building_sig associated predictors for each outcome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1038" documentId="8_{09F0DE7B-CFA3-4987-B447-7D54FB946415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6B2E56-5F5F-4CEA-B634-0772E85B9D4A}"/>
+  <xr:revisionPtr revIDLastSave="1040" documentId="8_{09F0DE7B-CFA3-4987-B447-7D54FB946415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28AC544-8DE9-4A08-8B01-C8D0444B8CC1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="8" xr2:uid="{70A6B132-0E5F-4BC0-9C1C-6E461B8947D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{70A6B132-0E5F-4BC0-9C1C-6E461B8947D6}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on MLR interp" sheetId="18" r:id="rId1"/>
@@ -2660,12 +2660,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2680,6 +2674,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3495,169 +3495,169 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="H3" s="66" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="H3" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="67" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="58"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -3677,13 +3677,13 @@
       <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:14" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
     </row>
@@ -3703,20 +3703,20 @@
       <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:14" ht="168.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="58"/>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="58"/>
@@ -3741,12 +3741,12 @@
       <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:14" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="58"/>
@@ -3794,12 +3794,12 @@
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="286.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -3881,14 +3881,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="K28:N28"/>
     <mergeCell ref="H3:K8"/>
     <mergeCell ref="A3:F11"/>
     <mergeCell ref="A14:E21"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="K28:N28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://sphweb.bumc.bu.edu/otlt/mph-modules/bs/bs704_multivariable/bs704_multivariable7.html" xr:uid="{11E213A6-6773-40A7-9CFD-1810A92A0347}"/>
@@ -4921,8 +4921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2764D2-2EA0-45D9-B7DA-047ECBCC8038}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5684,8 +5684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B67BF1F-6738-4CB9-851F-0BEB91D3CD54}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6725,8 +6725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDDE11-0D7A-466B-9F5A-405D6EE5E29D}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7335,7 +7335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFECDB28-21CC-4B19-A248-8F760787A475}">
   <dimension ref="A5:J120"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -8655,7 +8655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49DF6F0-BF72-4B4B-A6D9-F10171B1AC54}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -9920,8 +9920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30979F92-7AA4-4D72-AB4E-F74FEAE87B64}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11148,6 +11148,7 @@
     <col min="2" max="2" width="30.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="8"/>
+    <col min="5" max="5" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11834,51 +11835,51 @@
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
@@ -11896,21 +11897,21 @@
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
@@ -11928,51 +11929,51 @@
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
@@ -13206,7 +13207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDB8B5-0DDB-4A36-895D-D0E63B9A0FFD}">
   <dimension ref="A1:BH89"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -18873,8 +18874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCAFB01-DCB7-4006-A73D-45CA9C1A384C}">
   <dimension ref="A1:BD68"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55:J61"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29025,13 +29026,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC6D67-7A81-44C9-9161-BA535FA61732}">
   <dimension ref="A2:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.453125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="6" max="6" width="30.36328125" customWidth="1"/>
     <col min="9" max="9" width="29.08984375" customWidth="1"/>

--- a/OREI_files/40-herd data/model building_sig associated predictors for each outcome.xlsx
+++ b/OREI_files/40-herd data/model building_sig associated predictors for each outcome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1040" documentId="8_{09F0DE7B-CFA3-4987-B447-7D54FB946415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28AC544-8DE9-4A08-8B01-C8D0444B8CC1}"/>
+  <xr:revisionPtr revIDLastSave="1113" documentId="8_{09F0DE7B-CFA3-4987-B447-7D54FB946415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2B1D93A-6080-44F2-983A-EFF38E4DC0C0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{70A6B132-0E5F-4BC0-9C1C-6E461B8947D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{70A6B132-0E5F-4BC0-9C1C-6E461B8947D6}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on MLR interp" sheetId="18" r:id="rId1"/>
@@ -21,17 +21,20 @@
     <sheet name="perc any IMI" sheetId="16" r:id="rId6"/>
     <sheet name="avg unweighted LS" sheetId="8" r:id="rId7"/>
     <sheet name="avg weighted LS" sheetId="17" r:id="rId8"/>
-    <sheet name="BTM strep" sheetId="19" r:id="rId9"/>
-    <sheet name="v3_SCC" sheetId="12" r:id="rId10"/>
-    <sheet name="v3_perc IMI" sheetId="13" r:id="rId11"/>
-    <sheet name="v3_both LS" sheetId="14" r:id="rId12"/>
-    <sheet name="v2_SCC" sheetId="10" r:id="rId13"/>
-    <sheet name="v2_perc IMI" sheetId="7" r:id="rId14"/>
-    <sheet name="v2_both LS" sheetId="11" r:id="rId15"/>
-    <sheet name="v1_SCC" sheetId="1" r:id="rId16"/>
-    <sheet name="v1_perc IMI" sheetId="2" r:id="rId17"/>
-    <sheet name="v1_std150 and LS" sheetId="3" r:id="rId18"/>
-    <sheet name="hygiene" sheetId="4" r:id="rId19"/>
+    <sheet name="BTM strep (NB)" sheetId="19" r:id="rId9"/>
+    <sheet name="BTM strep (log)" sheetId="20" r:id="rId10"/>
+    <sheet name="BTM SA (log)" sheetId="21" r:id="rId11"/>
+    <sheet name="BTM staph sp (log)" sheetId="22" r:id="rId12"/>
+    <sheet name="v3_SCC" sheetId="12" r:id="rId13"/>
+    <sheet name="v3_perc IMI" sheetId="13" r:id="rId14"/>
+    <sheet name="v3_both LS" sheetId="14" r:id="rId15"/>
+    <sheet name="v2_SCC" sheetId="10" r:id="rId16"/>
+    <sheet name="v2_perc IMI" sheetId="7" r:id="rId17"/>
+    <sheet name="v2_both LS" sheetId="11" r:id="rId18"/>
+    <sheet name="v1_SCC" sheetId="1" r:id="rId19"/>
+    <sheet name="v1_perc IMI" sheetId="2" r:id="rId20"/>
+    <sheet name="v1_std150 and LS" sheetId="3" r:id="rId21"/>
+    <sheet name="hygiene" sheetId="4" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="470">
   <si>
     <t>raw SCC</t>
   </si>
@@ -2172,12 +2175,105 @@
   <si>
     <t>14!</t>
   </si>
+  <si>
+    <t>BTM strep (linear regression, normal dist.)</t>
+  </si>
+  <si>
+    <t>BTM Staph. aureus (linear regression, normal dist.)</t>
+  </si>
+  <si>
+    <t>BTM Staph. spp. (linear regression, normal dist.)</t>
+  </si>
+  <si>
+    <t>lying_surfacemat_conc</t>
+  </si>
+  <si>
+    <t>towel_typepaper</t>
+  </si>
+  <si>
+    <t>mast_vaxy</t>
+  </si>
+  <si>
+    <t>milking_systiestall</t>
+  </si>
+  <si>
+    <t>overall p = 0.07</t>
+  </si>
+  <si>
+    <t>Facility_type</t>
+  </si>
+  <si>
+    <t>... BP</t>
+  </si>
+  <si>
+    <t>... FS</t>
+  </si>
+  <si>
+    <t>... TS</t>
+  </si>
+  <si>
+    <t>cat. bin</t>
+  </si>
+  <si>
+    <t>cat. nom</t>
+  </si>
+  <si>
+    <t>air_quality_prodgood</t>
+  </si>
+  <si>
+    <t>overall p=0.09</t>
+  </si>
+  <si>
+    <t>culture_sccsometimes_always</t>
+  </si>
+  <si>
+    <t>cat. ord</t>
+  </si>
+  <si>
+    <t>&lt;- group size less than 5</t>
+  </si>
+  <si>
+    <t>record_typewritten</t>
+  </si>
+  <si>
+    <t>overall p-value = 0.004</t>
+  </si>
+  <si>
+    <t>overall p-value = 0.14</t>
+  </si>
+  <si>
+    <t>culture_mastsometimes_always</t>
+  </si>
+  <si>
+    <t>culture_locref_vet_onfarm</t>
+  </si>
+  <si>
+    <t>overall p-value=0.16</t>
+  </si>
+  <si>
+    <t>&lt;- correlated with perc_udder_3and4, mean_hygeine has lower p-value</t>
+  </si>
+  <si>
+    <t>&lt;- no measurements for BP in freq_stall_scraping_wk, so not really helpful in model i'm trying to build</t>
+  </si>
+  <si>
+    <t>&lt;- all these are specific to 1 or 2 types of facility (not 1 in all 3)</t>
+  </si>
+  <si>
+    <t>&lt;- correlated with perc_udder_3and4, which has lower p-value</t>
+  </si>
+  <si>
+    <t>&lt;- correlated at p&lt;0.05 with herd_size_cat, which had lower p-value</t>
+  </si>
+  <si>
+    <t>&lt;- corr. with culture mast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2414,6 +2510,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2423,7 +2526,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2566,12 +2669,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2660,6 +2778,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3021,6 +3140,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3495,169 +3622,169 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="H3" s="64" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="H3" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
     </row>
     <row r="9" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="58"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -3677,13 +3804,13 @@
       <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:14" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
     </row>
@@ -3703,20 +3830,20 @@
       <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:14" ht="168.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="58"/>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="64" t="s">
         <v>378</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="58"/>
@@ -3741,12 +3868,12 @@
       <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:14" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="58"/>
@@ -3794,12 +3921,12 @@
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="286.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -3900,6 +4027,1523 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05340CF4-D76B-4B8B-8790-2CF2F6ED9B6D}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="11">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="11">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="11">
+        <v>20</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="37"/>
+      <c r="B25" s="62"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>451</v>
+      </c>
+      <c r="C27">
+        <v>0.09</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" t="s">
+        <v>454</v>
+      </c>
+      <c r="D30" t="s">
+        <v>426</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>427</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>0.1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E40" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="203" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="202"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="202"/>
+      <c r="C47" s="202"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="202"/>
+      <c r="C48" s="202"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="202"/>
+      <c r="C49" s="202"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B45:C49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30869233-F29A-4E67-90DD-3705312AD6C9}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D1" s="8"/>
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="11">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="11">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" s="11">
+        <v>21</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="11">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11">
+        <v>15</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="11">
+        <v>21</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>21</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="11">
+        <v>8</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="11">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="37"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="201" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="201" t="s">
+        <v>460</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>0.03</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="203" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="202"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="202"/>
+      <c r="C53" s="202"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B51:C55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B327C9BE-F5D4-4F79-B22A-F6E44F5747D5}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D1" s="8"/>
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="11">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0.11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>0.15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="200" t="s">
+        <v>463</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>0.11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="203" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="202"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="202"/>
+      <c r="C33" s="202"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="202"/>
+      <c r="C35" s="202"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B32:C36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1BC7F4-3B9C-4EB0-8F9C-F38C5169DC09}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -4124,7 +5768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D336CEC4-EE12-4006-AD3F-F0CAC7CDDEF6}">
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -4917,7 +6561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2764D2-2EA0-45D9-B7DA-047ECBCC8038}">
   <dimension ref="A1:H36"/>
   <sheetViews>
@@ -5371,7 +7015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEFFF2A-48A7-44FA-B780-D30DD2F47DA4}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -5680,7 +7324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B67BF1F-6738-4CB9-851F-0BEB91D3CD54}">
   <dimension ref="A1:I81"/>
   <sheetViews>
@@ -6721,7 +8365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDDE11-0D7A-466B-9F5A-405D6EE5E29D}">
   <dimension ref="A1:H47"/>
   <sheetViews>
@@ -7331,7 +8975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFECDB28-21CC-4B19-A248-8F760787A475}">
   <dimension ref="A5:J120"/>
   <sheetViews>
@@ -8651,7 +10295,584 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE4E8A1-91F0-493C-B6C5-6253FE79D7B7}">
+  <dimension ref="A1:V50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+    </row>
+    <row r="3" spans="1:13" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" t="s">
+        <v>140</v>
+      </c>
+      <c r="V24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" t="s">
+        <v>137</v>
+      </c>
+      <c r="V25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" t="s">
+        <v>144</v>
+      </c>
+      <c r="V26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
+        <v>152</v>
+      </c>
+      <c r="V27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="11">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A5:M10"/>
+    <mergeCell ref="A12:M14"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A18:M20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49DF6F0-BF72-4B4B-A6D9-F10171B1AC54}">
   <dimension ref="A1:I100"/>
   <sheetViews>
@@ -9916,7 +12137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30979F92-7AA4-4D72-AB4E-F74FEAE87B64}">
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -11135,7 +13356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F2400F-2787-4B85-A418-94DEACBFFBA3}">
   <dimension ref="A1:F42"/>
   <sheetViews>
@@ -11665,588 +13886,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE4E8A1-91F0-493C-B6C5-6253FE79D7B7}">
-  <dimension ref="A1:V50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-    </row>
-    <row r="3" spans="1:13" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J24" t="s">
-        <v>140</v>
-      </c>
-      <c r="P24" t="s">
-        <v>140</v>
-      </c>
-      <c r="V24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-      <c r="P25" t="s">
-        <v>137</v>
-      </c>
-      <c r="V25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J26" t="s">
-        <v>150</v>
-      </c>
-      <c r="P26" t="s">
-        <v>144</v>
-      </c>
-      <c r="V26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="P27" t="s">
-        <v>152</v>
-      </c>
-      <c r="V27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="11">
-        <v>3.2899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="A5:M10"/>
-    <mergeCell ref="A12:M14"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A18:M20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409CBAA-804C-4C63-AC84-A223161001AB}">
   <dimension ref="A1:AX56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
@@ -12433,68 +14077,68 @@
       <c r="B16" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
-      <c r="J16" s="98" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="J16" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
     </row>
     <row r="17" spans="3:50" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="103"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="104"/>
     </row>
     <row r="18" spans="3:50" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="103"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="104"/>
     </row>
     <row r="19" spans="3:50" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="106"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="107"/>
       <c r="T19" s="48" t="s">
         <v>176</v>
       </c>
@@ -12590,12 +14234,12 @@
       </c>
     </row>
     <row r="20" spans="3:50" ht="21" x14ac:dyDescent="0.5">
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
       <c r="L20" s="45"/>
@@ -12695,12 +14339,12 @@
       </c>
     </row>
     <row r="21" spans="3:50" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
       <c r="L21" s="45"/>
@@ -12800,21 +14444,21 @@
       </c>
     </row>
     <row r="22" spans="3:50" ht="21" x14ac:dyDescent="0.5">
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="J22" s="80" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="J22" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="83"/>
       <c r="T22" s="47" t="s">
         <v>222</v>
       </c>
@@ -12910,96 +14554,96 @@
       </c>
     </row>
     <row r="23" spans="3:50" x14ac:dyDescent="0.35">
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="85"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="86"/>
     </row>
     <row r="24" spans="3:50" x14ac:dyDescent="0.35">
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="86"/>
     </row>
     <row r="25" spans="3:50" x14ac:dyDescent="0.35">
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="85"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="86"/>
     </row>
     <row r="26" spans="3:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="88"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="89"/>
     </row>
     <row r="27" spans="3:50" x14ac:dyDescent="0.35">
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77"/>
     </row>
     <row r="28" spans="3:50" x14ac:dyDescent="0.35">
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="3:50" x14ac:dyDescent="0.35">
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
     <row r="30" spans="3:50" x14ac:dyDescent="0.35">
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
       <c r="J30" s="60" t="s">
         <v>364</v>
       </c>
@@ -13008,20 +14652,20 @@
       </c>
     </row>
     <row r="31" spans="3:50" x14ac:dyDescent="0.35">
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
     </row>
     <row r="32" spans="3:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="79"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
       <c r="J32" s="52" t="s">
         <v>381</v>
       </c>
@@ -13037,159 +14681,159 @@
       </c>
     </row>
     <row r="36" spans="4:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92"/>
       <c r="J36" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D37" s="92"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="94"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="95"/>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D38" s="92"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="94"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="95"/>
       <c r="J38" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D39" s="92"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="94"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="95"/>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D40" s="92"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="94"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="95"/>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D41" s="92"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="94"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="95"/>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="94"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="95"/>
     </row>
     <row r="43" spans="4:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="92"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="94"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="95"/>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D44" s="92"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="94"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="95"/>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D45" s="92"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="94"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="95"/>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D46" s="92"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="94"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="95"/>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D47" s="92"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="94"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="95"/>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D48" s="92"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="94"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="95"/>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D49" s="92"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="94"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="95"/>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D50" s="92"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="94"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="95"/>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D51" s="92"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="94"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="95"/>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D52" s="92"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="94"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="95"/>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D53" s="92"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="94"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="95"/>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D54" s="92"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="94"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="95"/>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D55" s="92"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="94"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="95"/>
     </row>
     <row r="56" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D56" s="95"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="97"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13207,7 +14851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDB8B5-0DDB-4A36-895D-D0E63B9A0FFD}">
   <dimension ref="A1:BH89"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -13508,103 +15152,103 @@
     </row>
     <row r="24" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="80" t="s">
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="83"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="85"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="86"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B27" s="119"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="85"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="86"/>
     </row>
     <row r="28" spans="2:17" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="119"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="86"/>
     </row>
     <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="89"/>
     </row>
     <row r="30" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
       <c r="J30" s="57"/>
       <c r="K30" s="50"/>
       <c r="L30" s="49"/>
@@ -13615,14 +15259,14 @@
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B31" s="119"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
       <c r="J31" s="57"/>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -13633,14 +15277,14 @@
       <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="121"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="122"/>
       <c r="J32" s="57"/>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -13651,14 +15295,14 @@
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B33" s="119"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="122"/>
       <c r="J33" s="57"/>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -13669,14 +15313,14 @@
       <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
       <c r="J34" s="57"/>
       <c r="K34" s="49"/>
       <c r="L34" s="49"/>
@@ -13687,14 +15331,14 @@
       <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="121"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="122"/>
       <c r="J35" s="57"/>
       <c r="K35" s="49"/>
       <c r="L35" s="49"/>
@@ -13705,24 +15349,24 @@
       <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="2:17" ht="269" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="122"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="124"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="125"/>
       <c r="J36" s="57"/>
-      <c r="K36" s="125" t="s">
+      <c r="K36" s="126" t="s">
         <v>281</v>
       </c>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="128"/>
     </row>
     <row r="37" spans="2:17" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="53" t="s">
@@ -13731,139 +15375,139 @@
       <c r="D37"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="110"/>
       <c r="J38" s="52" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B39" s="110"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="113"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B40" s="110"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
       <c r="J40" s="52" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B41" s="110"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="113"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B42" s="110"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="112"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="113"/>
       <c r="J42" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B43" s="110"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="112"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="113"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B44" s="110"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="112"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
       <c r="J44" s="3" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="113"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B46" s="110"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="112"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="113"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B47" s="110"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="112"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="113"/>
       <c r="J47" s="60" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="112"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="113"/>
     </row>
     <row r="49" spans="2:60" x14ac:dyDescent="0.35">
-      <c r="B49" s="110"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="112"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="113"/>
       <c r="J49" s="60" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="50" spans="2:60" x14ac:dyDescent="0.35">
-      <c r="B50" s="110"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="112"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="113"/>
     </row>
     <row r="51" spans="2:60" x14ac:dyDescent="0.35">
-      <c r="B51" s="110"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="112"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="113"/>
       <c r="J51" s="52" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="52" spans="2:60" x14ac:dyDescent="0.35">
-      <c r="B52" s="110"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="112"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="113"/>
     </row>
     <row r="53" spans="2:60" x14ac:dyDescent="0.35">
-      <c r="B53" s="110"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="112"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="113"/>
       <c r="J53" s="52" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="54" spans="2:60" x14ac:dyDescent="0.35">
-      <c r="B54" s="110"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="112"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="113"/>
     </row>
     <row r="55" spans="2:60" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="113"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="116"/>
       <c r="J55" s="52" t="s">
         <v>391</v>
       </c>
@@ -18874,13 +20518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCAFB01-DCB7-4006-A73D-45CA9C1A384C}">
   <dimension ref="A1:BD68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.90625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="8"/>
     <col min="5" max="5" width="18.90625" customWidth="1"/>
@@ -18963,7 +20607,7 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>161</v>
+        <v>465</v>
       </c>
       <c r="H6" s="11"/>
     </row>
@@ -19114,187 +20758,187 @@
         <v>19</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="L19" s="128" t="s">
+      <c r="L19" s="129" t="s">
         <v>310</v>
       </c>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="133"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="134"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D21"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="133"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="134"/>
     </row>
     <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D22"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="133"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
     </row>
     <row r="23" spans="2:17" ht="46" customHeight="1" x14ac:dyDescent="1">
       <c r="B23" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="133"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="134"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="133"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="133"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="134"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="134"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="133"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="133"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="134"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="134"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C26" s="131"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="133"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="134"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="134"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="133"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="133"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="134"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="134"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C28" s="131"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="133"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="133"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="134"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="134"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C29" s="131"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="133"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="133"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="134"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="134"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C30" s="131"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="133"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="133"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="134"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="133"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="134"/>
     </row>
     <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="131"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="133"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="136"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="134"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="137"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C32" s="131"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="133"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="134"/>
     </row>
     <row r="33" spans="3:56" s="46" customFormat="1" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="131"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="133"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="134"/>
       <c r="R33" s="46" t="s">
         <v>176</v>
       </c>
@@ -19414,21 +21058,21 @@
       </c>
     </row>
     <row r="34" spans="3:56" x14ac:dyDescent="0.35">
-      <c r="C34" s="131"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="133"/>
-      <c r="J34" s="80" t="s">
+      <c r="C34" s="132"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="134"/>
+      <c r="J34" s="81" t="s">
         <v>368</v>
       </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83"/>
       <c r="R34" s="11" t="s">
         <v>294</v>
       </c>
@@ -19548,19 +21192,19 @@
       </c>
     </row>
     <row r="35" spans="3:56" x14ac:dyDescent="0.35">
-      <c r="C35" s="131"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="133"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="85"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="134"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="86"/>
       <c r="R35" s="11" t="s">
         <v>295</v>
       </c>
@@ -19680,19 +21324,19 @@
       </c>
     </row>
     <row r="36" spans="3:56" x14ac:dyDescent="0.35">
-      <c r="C36" s="131"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="133"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="85"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="134"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="86"/>
       <c r="R36" t="s">
         <v>296</v>
       </c>
@@ -19812,19 +21456,19 @@
       </c>
     </row>
     <row r="37" spans="3:56" x14ac:dyDescent="0.35">
-      <c r="C37" s="131"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="133"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="85"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="134"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="86"/>
       <c r="R37" t="s">
         <v>297</v>
       </c>
@@ -19944,19 +21588,19 @@
       </c>
     </row>
     <row r="38" spans="3:56" x14ac:dyDescent="0.35">
-      <c r="C38" s="131"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="133"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="85"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="134"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="86"/>
       <c r="R38" t="s">
         <v>298</v>
       </c>
@@ -20076,19 +21720,19 @@
       </c>
     </row>
     <row r="39" spans="3:56" x14ac:dyDescent="0.35">
-      <c r="C39" s="131"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="133"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="85"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="134"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="86"/>
       <c r="R39" t="s">
         <v>299</v>
       </c>
@@ -20208,19 +21852,19 @@
       </c>
     </row>
     <row r="40" spans="3:56" x14ac:dyDescent="0.35">
-      <c r="C40" s="131"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="133"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="85"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="134"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="86"/>
       <c r="R40" t="s">
         <v>300</v>
       </c>
@@ -20340,19 +21984,19 @@
       </c>
     </row>
     <row r="41" spans="3:56" x14ac:dyDescent="0.35">
-      <c r="C41" s="131"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="133"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="85"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="134"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="86"/>
       <c r="R41" t="s">
         <v>301</v>
       </c>
@@ -20472,19 +22116,19 @@
       </c>
     </row>
     <row r="42" spans="3:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="131"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="133"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="88"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="134"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="89"/>
       <c r="R42" t="s">
         <v>302</v>
       </c>
@@ -20604,12 +22248,12 @@
       </c>
     </row>
     <row r="43" spans="3:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="134"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="136"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="137"/>
       <c r="R43" t="s">
         <v>303</v>
       </c>
@@ -21329,177 +22973,177 @@
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C50" s="137" t="s">
+      <c r="C50" s="138" t="s">
         <v>282</v>
       </c>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="140"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C51" s="140"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="142"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="143"/>
       <c r="J51" s="52" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C52" s="140"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="142"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="143"/>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C53" s="140"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="142"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="143"/>
       <c r="J53" s="52" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C54" s="140"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="142"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="143"/>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C55" s="140"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="142"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="143"/>
       <c r="J55" s="60" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C56" s="140"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="142"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="143"/>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C57" s="140"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="142"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="143"/>
       <c r="J57" s="60" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C58" s="140"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="142"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="143"/>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C59" s="140"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="142"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="143"/>
       <c r="J59" s="52" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C60" s="140"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="142"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="143"/>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C61" s="140"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="142"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="143"/>
       <c r="J61" s="52" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C62" s="140"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="142"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="143"/>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C63" s="140"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="142"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="143"/>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C64" s="140"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="141"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="142"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="143"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C65" s="140"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="142"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="143"/>
       <c r="J65" s="52"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C66" s="140"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="142"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="143"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C67" s="140"/>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="142"/>
+      <c r="C67" s="141"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="143"/>
     </row>
     <row r="68" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C68" s="143"/>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="145"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="145"/>
+      <c r="G68" s="145"/>
+      <c r="H68" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21516,8 +23160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1892D7A6-F158-4E34-8BD7-49C347222B83}">
   <dimension ref="A1:BA60"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21668,59 +23312,59 @@
       <c r="B14" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
-      <c r="N14" s="98" t="s">
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
+      <c r="N14" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="101"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="E15" s="149"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="151"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="103"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="104"/>
     </row>
     <row r="16" spans="1:52" ht="21" x14ac:dyDescent="0.5">
-      <c r="E16" s="149"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="151"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="103"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="152"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="104"/>
       <c r="W16" s="47"/>
       <c r="X16" s="47"/>
       <c r="Y16" s="47"/>
@@ -21753,21 +23397,21 @@
       <c r="AZ16" s="47"/>
     </row>
     <row r="17" spans="4:53" ht="21" x14ac:dyDescent="0.5">
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="151"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="103"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="104"/>
       <c r="W17" s="47"/>
       <c r="X17" s="47"/>
       <c r="Y17" s="47"/>
@@ -21800,21 +23444,21 @@
       <c r="AZ17" s="47"/>
     </row>
     <row r="18" spans="4:53" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="149"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="151"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="103"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="104"/>
       <c r="W18" s="48" t="s">
         <v>176</v>
       </c>
@@ -21911,21 +23555,21 @@
     </row>
     <row r="19" spans="4:53" s="1" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="7"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="106"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="107"/>
       <c r="W19" s="54" t="s">
         <v>205</v>
       </c>
@@ -22022,14 +23666,14 @@
     </row>
     <row r="20" spans="4:53" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="D20" s="7"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="151"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
       <c r="N20" s="55"/>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
@@ -22133,14 +23777,14 @@
     </row>
     <row r="21" spans="4:53" s="1" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="7"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="151"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
       <c r="N21" s="55"/>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
@@ -22243,214 +23887,214 @@
       </c>
     </row>
     <row r="22" spans="4:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="151"/>
-      <c r="N22" s="80" t="s">
+      <c r="E22" s="150"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="152"/>
+      <c r="N22" s="81" t="s">
         <v>369</v>
       </c>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="83"/>
     </row>
     <row r="23" spans="4:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="149"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="151"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="85"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="152"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="86"/>
     </row>
     <row r="24" spans="4:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="149"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="151"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="85"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="152"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="86"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="E25" s="149"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="151"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="85"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="152"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="86"/>
     </row>
     <row r="26" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="E26" s="149"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="151"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="85"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="86"/>
     </row>
     <row r="27" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="E27" s="149"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="151"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="85"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="152"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="86"/>
     </row>
     <row r="28" spans="4:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="149"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="151"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="88"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="89"/>
     </row>
     <row r="29" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="E29" s="149"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="E30" s="149"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
     </row>
     <row r="31" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="E31" s="149"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
       <c r="P31" s="52" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="E32" s="149"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E33" s="149"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
       <c r="P33" s="52" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E34" s="149"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E35" s="149"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="152"/>
       <c r="P35" s="60" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="36" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="152"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="154"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="155"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.35">
       <c r="P37" s="52" t="s">
@@ -22463,258 +24107,258 @@
       </c>
     </row>
     <row r="40" spans="5:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="146" t="s">
+      <c r="E40" s="147" t="s">
         <v>209</v>
       </c>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
+      <c r="N40" s="149"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E41" s="149"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
-      <c r="N41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="152"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E42" s="149"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="152"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E43" s="149"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="152"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E44" s="149"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="150"/>
-      <c r="N44" s="151"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="152"/>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E45" s="149"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="150"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="150"/>
-      <c r="M45" s="150"/>
-      <c r="N45" s="151"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="152"/>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E46" s="149"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="150"/>
-      <c r="M46" s="150"/>
-      <c r="N46" s="151"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="152"/>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E47" s="149"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="150"/>
-      <c r="N47" s="151"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
+      <c r="N47" s="152"/>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E48" s="149"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="150"/>
-      <c r="N48" s="151"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="152"/>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E49" s="149"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="150"/>
-      <c r="K49" s="150"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="150"/>
-      <c r="N49" s="151"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="152"/>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E50" s="149"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="150"/>
-      <c r="N50" s="151"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="152"/>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E51" s="149"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="150"/>
-      <c r="N51" s="151"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="151"/>
+      <c r="N51" s="152"/>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E52" s="149"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="150"/>
-      <c r="N52" s="151"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="151"/>
+      <c r="K52" s="151"/>
+      <c r="L52" s="151"/>
+      <c r="M52" s="151"/>
+      <c r="N52" s="152"/>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E53" s="149"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="150"/>
-      <c r="L53" s="150"/>
-      <c r="M53" s="150"/>
-      <c r="N53" s="151"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="151"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="151"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="151"/>
+      <c r="M53" s="151"/>
+      <c r="N53" s="152"/>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E54" s="149"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="150"/>
-      <c r="M54" s="150"/>
-      <c r="N54" s="151"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="151"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="151"/>
+      <c r="K54" s="151"/>
+      <c r="L54" s="151"/>
+      <c r="M54" s="151"/>
+      <c r="N54" s="152"/>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E55" s="149"/>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="150"/>
-      <c r="K55" s="150"/>
-      <c r="L55" s="150"/>
-      <c r="M55" s="150"/>
-      <c r="N55" s="151"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="151"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="151"/>
+      <c r="K55" s="151"/>
+      <c r="L55" s="151"/>
+      <c r="M55" s="151"/>
+      <c r="N55" s="152"/>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E56" s="149"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="150"/>
-      <c r="N56" s="151"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="151"/>
+      <c r="M56" s="151"/>
+      <c r="N56" s="152"/>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E57" s="149"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="150"/>
-      <c r="N57" s="151"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="151"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="151"/>
+      <c r="K57" s="151"/>
+      <c r="L57" s="151"/>
+      <c r="M57" s="151"/>
+      <c r="N57" s="152"/>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E58" s="149"/>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="150"/>
-      <c r="M58" s="150"/>
-      <c r="N58" s="151"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="151"/>
+      <c r="K58" s="151"/>
+      <c r="L58" s="151"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="152"/>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E59" s="149"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="150"/>
-      <c r="L59" s="150"/>
-      <c r="M59" s="150"/>
-      <c r="N59" s="151"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="151"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="151"/>
+      <c r="K59" s="151"/>
+      <c r="L59" s="151"/>
+      <c r="M59" s="151"/>
+      <c r="N59" s="152"/>
     </row>
     <row r="60" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E60" s="152"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
-      <c r="N60" s="154"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="154"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="154"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="154"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
+      <c r="N60" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -22732,7 +24376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AF16EE-24C7-49C9-9B7C-B3D94F95E62D}">
   <dimension ref="A1:BE72"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
@@ -22936,11 +24580,11 @@
       <c r="F16" s="9">
         <v>11</v>
       </c>
-      <c r="M16" s="128" t="s">
+      <c r="M16" s="129" t="s">
         <v>352</v>
       </c>
-      <c r="N16" s="129"/>
-      <c r="O16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="131"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
@@ -22952,9 +24596,9 @@
       <c r="F17" s="9">
         <v>9</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="133"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="134"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
@@ -22970,217 +24614,217 @@
         <v>20</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="133"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="134"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="M19" s="131"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="133"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="134"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="133"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="134"/>
     </row>
     <row r="21" spans="2:15" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B21" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="M21" s="131"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="133"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="134"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="108" t="s">
         <v>351</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="165"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="133"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="166"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="166"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="133"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="169"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="134"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="166"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="168"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="133"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="169"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="134"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="166"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="133"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="134"/>
     </row>
     <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="166"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="168"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="136"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="169"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="137"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B27" s="166"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="168"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="169"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="166"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="168"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="166"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="169"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="166"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B31" s="166"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
     </row>
     <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="166"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="168"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="169"/>
     </row>
     <row r="33" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B33" s="166"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="168"/>
-      <c r="I33" s="80" t="s">
+      <c r="B33" s="167"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="169"/>
+      <c r="I33" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="83"/>
     </row>
     <row r="34" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B34" s="166"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="168"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="85"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="169"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="86"/>
     </row>
     <row r="35" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B35" s="166"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="168"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="85"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="169"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="86"/>
     </row>
     <row r="36" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B36" s="166"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="168"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="85"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="169"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="86"/>
     </row>
     <row r="37" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="166"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="168"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="88"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="169"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="89"/>
     </row>
     <row r="38" spans="2:57" s="46" customFormat="1" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="169"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="171"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="172"/>
       <c r="O38" s="46" t="s">
         <v>176</v>
       </c>
@@ -23446,13 +25090,13 @@
       </c>
     </row>
     <row r="40" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="156" t="s">
         <v>311</v>
       </c>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="158"/>
       <c r="O40" s="11" t="s">
         <v>321</v>
       </c>
@@ -23584,11 +25228,11 @@
       </c>
     </row>
     <row r="41" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B41" s="158"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="160"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161"/>
       <c r="O41" s="11" t="s">
         <v>322</v>
       </c>
@@ -23720,11 +25364,11 @@
       </c>
     </row>
     <row r="42" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B42" s="158"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="160"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="161"/>
       <c r="O42" s="11" t="s">
         <v>323</v>
       </c>
@@ -23856,11 +25500,11 @@
       </c>
     </row>
     <row r="43" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B43" s="158"/>
-      <c r="C43" s="159"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="159"/>
-      <c r="F43" s="160"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="161"/>
       <c r="O43" t="s">
         <v>324</v>
       </c>
@@ -23992,11 +25636,11 @@
       </c>
     </row>
     <row r="44" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B44" s="158"/>
-      <c r="C44" s="159"/>
-      <c r="D44" s="159"/>
-      <c r="E44" s="159"/>
-      <c r="F44" s="160"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="161"/>
       <c r="O44" t="s">
         <v>325</v>
       </c>
@@ -24128,11 +25772,11 @@
       </c>
     </row>
     <row r="45" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B45" s="158"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="159"/>
-      <c r="F45" s="160"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="161"/>
       <c r="O45" t="s">
         <v>326</v>
       </c>
@@ -24264,11 +25908,11 @@
       </c>
     </row>
     <row r="46" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B46" s="158"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="160"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="161"/>
       <c r="O46" t="s">
         <v>327</v>
       </c>
@@ -24400,11 +26044,11 @@
       </c>
     </row>
     <row r="47" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B47" s="158"/>
-      <c r="C47" s="159"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="160"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="161"/>
       <c r="O47" t="s">
         <v>328</v>
       </c>
@@ -24536,11 +26180,11 @@
       </c>
     </row>
     <row r="48" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B48" s="158"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="160"/>
+      <c r="B48" s="159"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="161"/>
       <c r="O48" t="s">
         <v>329</v>
       </c>
@@ -24672,11 +26316,11 @@
       </c>
     </row>
     <row r="49" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B49" s="158"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="159"/>
-      <c r="F49" s="160"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="161"/>
       <c r="O49" t="s">
         <v>330</v>
       </c>
@@ -24808,11 +26452,11 @@
       </c>
     </row>
     <row r="50" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B50" s="158"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="160"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="161"/>
       <c r="O50" t="s">
         <v>331</v>
       </c>
@@ -24944,11 +26588,11 @@
       </c>
     </row>
     <row r="51" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="159"/>
-      <c r="F51" s="160"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="161"/>
       <c r="O51" t="s">
         <v>332</v>
       </c>
@@ -25080,11 +26724,11 @@
       </c>
     </row>
     <row r="52" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="160"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="161"/>
       <c r="O52" t="s">
         <v>333</v>
       </c>
@@ -25216,11 +26860,11 @@
       </c>
     </row>
     <row r="53" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="160"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="161"/>
       <c r="O53" t="s">
         <v>334</v>
       </c>
@@ -25352,11 +26996,11 @@
       </c>
     </row>
     <row r="54" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="160"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="161"/>
       <c r="O54" t="s">
         <v>335</v>
       </c>
@@ -25488,11 +27132,11 @@
       </c>
     </row>
     <row r="55" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="160"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="161"/>
       <c r="O55" t="s">
         <v>336</v>
       </c>
@@ -25624,11 +27268,11 @@
       </c>
     </row>
     <row r="56" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B56" s="158"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="160"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="161"/>
       <c r="O56" t="s">
         <v>337</v>
       </c>
@@ -25760,11 +27404,11 @@
       </c>
     </row>
     <row r="57" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B57" s="158"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="160"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="161"/>
       <c r="O57" t="s">
         <v>338</v>
       </c>
@@ -25896,11 +27540,11 @@
       </c>
     </row>
     <row r="58" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B58" s="158"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="160"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="161"/>
       <c r="O58" t="s">
         <v>339</v>
       </c>
@@ -26032,11 +27676,11 @@
       </c>
     </row>
     <row r="59" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="161"/>
-      <c r="C59" s="162"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="162"/>
-      <c r="F59" s="163"/>
+      <c r="B59" s="162"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="163"/>
+      <c r="F59" s="164"/>
       <c r="O59" t="s">
         <v>340</v>
       </c>
@@ -27517,8 +29161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE602D1D-8AD5-4D27-82D9-4C8D4C22D9EE}">
   <dimension ref="A1:BA58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27649,286 +29293,286 @@
       <c r="B14" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="128" t="s">
+      <c r="Q14" s="129" t="s">
         <v>362</v>
       </c>
-      <c r="R14" s="129"/>
-      <c r="S14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="131"/>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q15" s="131"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="133"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="134"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D16" s="172" t="s">
+      <c r="D16" s="173" t="s">
         <v>361</v>
       </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="182"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="133"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="183"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="134"/>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D17" s="183"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="185"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="133"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="186"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="134"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D18" s="183"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="185"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="133"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="186"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="134"/>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D19" s="183"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="185"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="133"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="186"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="134"/>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D20" s="183"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="185"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="133"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="186"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="134"/>
     </row>
     <row r="21" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="183"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="185"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="136"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="186"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="137"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D22" s="183"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="185"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="186"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D23" s="183"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="185"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="186"/>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="185"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="185"/>
+      <c r="M24" s="186"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D25" s="183"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="185"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="185"/>
+      <c r="M25" s="186"/>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D26" s="183"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="185"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="185"/>
+      <c r="M26" s="186"/>
     </row>
     <row r="27" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="183"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="185"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="186"/>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D28" s="183"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="185"/>
-      <c r="O28" s="189" t="s">
+      <c r="D28" s="184"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="186"/>
+      <c r="O28" s="190" t="s">
         <v>365</v>
       </c>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="190"/>
-      <c r="R28" s="190"/>
-      <c r="S28" s="191"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="191"/>
+      <c r="R28" s="191"/>
+      <c r="S28" s="192"/>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D29" s="183"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="185"/>
-      <c r="O29" s="192"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="194"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="186"/>
+      <c r="O29" s="193"/>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="195"/>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D30" s="183"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="185"/>
-      <c r="O30" s="192"/>
-      <c r="P30" s="193"/>
-      <c r="Q30" s="193"/>
-      <c r="R30" s="193"/>
-      <c r="S30" s="194"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="186"/>
+      <c r="O30" s="193"/>
+      <c r="P30" s="194"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="195"/>
     </row>
     <row r="31" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="183"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="185"/>
-      <c r="O31" s="195"/>
-      <c r="P31" s="196"/>
-      <c r="Q31" s="196"/>
-      <c r="R31" s="196"/>
-      <c r="S31" s="197"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="186"/>
+      <c r="O31" s="196"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="198"/>
     </row>
     <row r="32" spans="4:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="183"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="185"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="186"/>
     </row>
     <row r="33" spans="4:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="185"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="186"/>
     </row>
     <row r="34" spans="4:53" s="46" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="187"/>
-      <c r="M34" s="188"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="189"/>
       <c r="S34" s="46" t="s">
         <v>176</v>
       </c>
@@ -28253,16 +29897,16 @@
       </c>
     </row>
     <row r="37" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D37" s="172" t="s">
+      <c r="D37" s="173" t="s">
         <v>353</v>
       </c>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="175"/>
       <c r="S37" t="s">
         <v>356</v>
       </c>
@@ -28370,14 +30014,14 @@
       </c>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D38" s="175"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="177"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="178"/>
       <c r="S38" t="s">
         <v>357</v>
       </c>
@@ -28485,14 +30129,14 @@
       </c>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D39" s="175"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="177"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="178"/>
       <c r="S39" t="s">
         <v>358</v>
       </c>
@@ -28600,14 +30244,14 @@
       </c>
     </row>
     <row r="40" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D40" s="175"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="176"/>
-      <c r="K40" s="177"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="178"/>
       <c r="S40" t="s">
         <v>359</v>
       </c>
@@ -28715,14 +30359,14 @@
       </c>
     </row>
     <row r="41" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D41" s="175"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="176"/>
-      <c r="K41" s="177"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="178"/>
       <c r="S41" t="s">
         <v>360</v>
       </c>
@@ -28830,183 +30474,183 @@
       </c>
     </row>
     <row r="42" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D42" s="175"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="177"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="178"/>
     </row>
     <row r="43" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D43" s="175"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="176"/>
-      <c r="K43" s="177"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="178"/>
     </row>
     <row r="44" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D44" s="175"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="176"/>
-      <c r="K44" s="177"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="178"/>
     </row>
     <row r="45" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D45" s="175"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="176"/>
-      <c r="K45" s="177"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="177"/>
+      <c r="K45" s="178"/>
       <c r="N45" s="52" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D46" s="175"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="177"/>
+      <c r="D46" s="176"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="178"/>
     </row>
     <row r="47" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D47" s="175"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="177"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="177"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="177"/>
+      <c r="J47" s="177"/>
+      <c r="K47" s="178"/>
       <c r="N47" s="52" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="48" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D48" s="175"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="176"/>
-      <c r="K48" s="177"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="177"/>
+      <c r="G48" s="177"/>
+      <c r="H48" s="177"/>
+      <c r="I48" s="177"/>
+      <c r="J48" s="177"/>
+      <c r="K48" s="178"/>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D49" s="175"/>
-      <c r="E49" s="176"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="176"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="177"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="177"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="177"/>
+      <c r="J49" s="177"/>
+      <c r="K49" s="178"/>
       <c r="N49" s="61" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D50" s="175"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="177"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="177"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="178"/>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D51" s="175"/>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="177"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="177"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="177"/>
+      <c r="K51" s="178"/>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D52" s="175"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="177"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="177"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="177"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="177"/>
+      <c r="J52" s="177"/>
+      <c r="K52" s="178"/>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D53" s="175"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="177"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="177"/>
+      <c r="H53" s="177"/>
+      <c r="I53" s="177"/>
+      <c r="J53" s="177"/>
+      <c r="K53" s="178"/>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D54" s="175"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="176"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="177"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="177"/>
+      <c r="J54" s="177"/>
+      <c r="K54" s="178"/>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D55" s="175"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="176"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="177"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="177"/>
+      <c r="J55" s="177"/>
+      <c r="K55" s="178"/>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D56" s="175"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="176"/>
-      <c r="G56" s="176"/>
-      <c r="H56" s="176"/>
-      <c r="I56" s="176"/>
-      <c r="J56" s="176"/>
-      <c r="K56" s="177"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177"/>
+      <c r="H56" s="177"/>
+      <c r="I56" s="177"/>
+      <c r="J56" s="177"/>
+      <c r="K56" s="178"/>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D57" s="175"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="176"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="176"/>
-      <c r="J57" s="176"/>
-      <c r="K57" s="177"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="177"/>
+      <c r="I57" s="177"/>
+      <c r="J57" s="177"/>
+      <c r="K57" s="178"/>
     </row>
     <row r="58" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D58" s="178"/>
-      <c r="E58" s="179"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="179"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="179"/>
-      <c r="K58" s="180"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="180"/>
+      <c r="F58" s="180"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="180"/>
+      <c r="I58" s="180"/>
+      <c r="J58" s="180"/>
+      <c r="K58" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -29026,8 +30670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC6D67-7A81-44C9-9161-BA535FA61732}">
   <dimension ref="A2:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29635,7 +31279,7 @@
       <c r="G41">
         <v>5</v>
       </c>
-      <c r="I41" s="198" t="s">
+      <c r="I41" s="199" t="s">
         <v>438</v>
       </c>
     </row>
@@ -29655,7 +31299,7 @@
       <c r="G42">
         <v>21</v>
       </c>
-      <c r="I42" s="198"/>
+      <c r="I42" s="199"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C43" s="9"/>
@@ -29665,7 +31309,7 @@
       <c r="G43">
         <v>8</v>
       </c>
-      <c r="I43" s="198"/>
+      <c r="I43" s="199"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C44" s="9"/>
@@ -29675,7 +31319,7 @@
       <c r="G44">
         <v>13</v>
       </c>
-      <c r="I44" s="198"/>
+      <c r="I44" s="199"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
@@ -29693,7 +31337,7 @@
       <c r="G45">
         <v>20</v>
       </c>
-      <c r="I45" s="198"/>
+      <c r="I45" s="199"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C46" s="9"/>

--- a/OREI_files/40-herd data/model building_sig associated predictors for each outcome.xlsx
+++ b/OREI_files/40-herd data/model building_sig associated predictors for each outcome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1117" documentId="8_{09F0DE7B-CFA3-4987-B447-7D54FB946415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38628F17-AA05-4403-A121-E8B14910BC58}"/>
+  <xr:revisionPtr revIDLastSave="1144" documentId="8_{09F0DE7B-CFA3-4987-B447-7D54FB946415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12481D50-C5CF-493C-A0A7-0BECA5189B04}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="848" firstSheet="1" activeTab="2" xr2:uid="{70A6B132-0E5F-4BC0-9C1C-6E461B8947D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="848" firstSheet="7" activeTab="11" xr2:uid="{70A6B132-0E5F-4BC0-9C1C-6E461B8947D6}"/>
   </bookViews>
   <sheets>
     <sheet name="notes on MLR interp" sheetId="18" r:id="rId1"/>
@@ -44,9 +44,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="532">
   <si>
     <t>raw SCC</t>
   </si>
@@ -2267,6 +2270,281 @@
   </si>
   <si>
     <t>&lt;- corr. with culture mast</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> note 5.18.23: took "significant" univariate outcomes from "model building outlines by outcome" and cut/pasted them in here, by outcome</t>
+    </r>
+  </si>
+  <si>
+    <t>Call:
+glm(formula = milk_log10_strep ~ factor(Facility_type), data = lu)
+Deviance Residuals: 
+     Min        1Q    Median        3Q       Max  
+-0.81137  -0.27314   0.03701   0.34244   0.98451  
+Coefficients:
+                        Estimate Std. Error t value Pr(&gt;|t|)    
+(Intercept)               1.5071     0.2093   7.200 1.06e-06 ***
+factor(Facility_type)FS   0.2432     0.2834   0.858   0.4021    
+factor(Facility_type)TS   0.6053     0.2563   2.361   0.0297 *  
+---
+Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1
+(Dispersion parameter for gaussian family taken to be 0.2190366)
+    Null deviance: 5.2743  on 20  degrees of freedom
+Residual deviance: 3.9427  on 18  degrees of freedom
+AIC: 32.469
+Number of Fisher Scoring iterations: 2</t>
+  </si>
+  <si>
+    <t>air_quality_prodpoor_fair</t>
+  </si>
+  <si>
+    <t>se.air_quality_prodgood</t>
+  </si>
+  <si>
+    <t>se.air_quality_prodpoor_fair</t>
+  </si>
+  <si>
+    <t>se.culture_sccsometimes_always</t>
+  </si>
+  <si>
+    <t>se.age_fac</t>
+  </si>
+  <si>
+    <t>t.air_quality_prodgood</t>
+  </si>
+  <si>
+    <t>t.air_quality_prodpoor_fair</t>
+  </si>
+  <si>
+    <t>t.culture_sccsometimes_always</t>
+  </si>
+  <si>
+    <t>t.age_fac</t>
+  </si>
+  <si>
+    <t>p.air_quality_prodgood</t>
+  </si>
+  <si>
+    <t>p.air_quality_prodpoor_fair</t>
+  </si>
+  <si>
+    <t>p.culture_sccsometimes_always</t>
+  </si>
+  <si>
+    <t>p.age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + air_quality_prod + culture_scc + age_fac + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + air_quality_prod + culture_scc + age_fac + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + culture_scc + age_fac + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + culture_scc + age_fac + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + air_quality_prod + age_fac + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + air_quality_prod + age_fac + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + age_fac + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + age_fac + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + air_quality_prod + culture_scc + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + air_quality_prod + culture_scc + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + culture_scc + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + culture_scc + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + air_quality_prod + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + air_quality_prod + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + perc_udder_3and4</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + air_quality_prod + culture_scc + age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + air_quality_prod + culture_scc + age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + culture_scc + age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + culture_scc + age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + air_quality_prod + age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + air_quality_prod + age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + age_fac</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + air_quality_prod + culture_scc</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + air_quality_prod + culture_scc</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + culture_scc</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + culture_scc</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed + air_quality_prod</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + air_quality_prod</t>
+  </si>
+  <si>
+    <t>milk_log10_strep ~ Facility_type + pred_breed</t>
+  </si>
+  <si>
+    <t>* 22 models that were statistically significant</t>
+  </si>
+  <si>
+    <t>Call:
+lm(formula = milk_log10_strep ~ Facility_type + pred_breed + 
+    air_quality_prod, data = lu)
+Residuals:
+     Min       1Q   Median       3Q      Max 
+-0.50350 -0.13951  0.04775  0.16596  0.52237 
+Coefficients:
+                          Estimate Std. Error t value Pr(&gt;|t|)    
+(Intercept)                 0.4481     0.2407   1.862 0.082345 .  
+Facility_typeFS             0.9492     0.2326   4.080 0.000985 ***
+Facility_typeTS             0.7313     0.1784   4.099 0.000948 ***
+pred_breedJersey_Other      0.5041     0.1390   3.627 0.002483 ** 
+air_quality_prodgood        0.6053     0.1990   3.042 0.008229 ** 
+air_quality_prodpoor_fair   0.8910     0.2202   4.047 0.001055 ** 
+---
+Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1
+Residual standard error: 0.3009 on 15 degrees of freedom
+Multiple R-squared:  0.7425,	Adjusted R-squared:  0.6567 
+F-statistic: 8.651 on 5 and 15 DF,  p-value: 0.0005035</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*model with pred_breed, air_quality_prod had lowest AIC; f-test between full and reduced model showed full model "better" than reduced model (p&lt;0.001); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFCC00CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatic model selection chose the same one</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;- took this out of most models, don't really trust the assessment (didn't score any as "poor" which is cracked)</t>
+  </si>
+  <si>
+    <t>Call:
+glm(formula = milk_log10_staphsp ~ Facility_type, data = lu_log)
+Deviance Residuals: 
+    Min       1Q   Median       3Q      Max  
+-1.0829  -0.4223   0.1340   0.3321   1.0026  
+Coefficients:
+                Estimate Std. Error t value Pr(&gt;|t|)    
+(Intercept)       1.4808     0.2539   5.832 1.59e-05 ***
+Facility_typeFS   0.1511     0.3438   0.440    0.665    
+Facility_typeTS   0.3394     0.3110   1.092    0.289    
+---
+Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1
+(Dispersion parameter for gaussian family taken to be 0.3223214)
+    Null deviance: 6.2100  on 20  degrees of freedom
+Residual deviance: 5.8018  on 18  degrees of freedom
+AIC: 40.582
+Number of Fisher Scoring iterations: 2</t>
+  </si>
+  <si>
+    <t>se.culture_mastsometimes_always</t>
+  </si>
+  <si>
+    <t>t.culture_mastsometimes_always</t>
+  </si>
+  <si>
+    <t>p.culture_mastsometimes_always</t>
+  </si>
+  <si>
+    <t>milk_log10_staphsp ~ Facility_type + gloves + mast_record + culture_mast</t>
+  </si>
+  <si>
+    <t>milk_log10_staphsp ~ Facility_type + mast_record + culture_mast</t>
+  </si>
+  <si>
+    <t>milk_log10_staphsp ~ Facility_type + gloves + culture_mast</t>
+  </si>
+  <si>
+    <t>milk_log10_staphsp ~ Facility_type + culture_mast</t>
+  </si>
+  <si>
+    <t>milk_log10_staphsp ~ Facility_type + gloves + mast_record</t>
+  </si>
+  <si>
+    <t>milk_log10_staphsp ~ Facility_type + mast_record</t>
+  </si>
+  <si>
+    <t>milk_log10_staphsp ~ Facility_type + gloves</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*2 models where TS is statistically different than BP; full model with gloves, mast_record, culture_mast had lowest AIC; f-test between full and reduced model showed full model "better" than reduced model (p&lt;0.001); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFCC00CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatic model selection chose full model</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2526,7 +2804,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2684,12 +2962,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2996,6 +3289,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3102,33 +3422,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3219,8 +3598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCC00CC"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
   </colors>
@@ -4007,10 +4386,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05340CF4-D76B-4B8B-8790-2CF2F6ED9B6D}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:BM76"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="G26" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4018,6 +4397,7 @@
     <col min="1" max="1" width="26.1796875" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" customWidth="1"/>
     <col min="4" max="4" width="30.54296875" customWidth="1"/>
+    <col min="19" max="19" width="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -4237,14 +4617,14 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>442</v>
       </c>
@@ -4264,7 +4644,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -4275,7 +4655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4286,7 +4666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>445</v>
       </c>
@@ -4306,7 +4686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -4317,7 +4697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4328,15 +4708,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -4353,7 +4733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>86</v>
       </c>
@@ -4361,7 +4741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>118</v>
       </c>
@@ -4369,7 +4749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>453</v>
       </c>
@@ -4386,31 +4766,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>427</v>
       </c>
       <c r="E31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="O31" s="68" t="s">
+        <v>518</v>
+      </c>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="70"/>
+    </row>
+    <row r="32" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>77</v>
       </c>
       <c r="E32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="O32" s="71"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="73"/>
+    </row>
+    <row r="33" spans="1:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>428</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="O33" s="71"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="73"/>
+    </row>
+    <row r="34" spans="1:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>455</v>
       </c>
@@ -4426,24 +4829,45 @@
       <c r="E34">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="73"/>
+    </row>
+    <row r="35" spans="1:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>71</v>
       </c>
       <c r="E35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="73"/>
+    </row>
+    <row r="36" spans="1:65" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>120</v>
       </c>
       <c r="E36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="O36" s="71"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="73"/>
+    </row>
+    <row r="37" spans="1:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -4459,8 +4883,24 @@
       <c r="E37">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G37" s="103" t="s">
+        <v>517</v>
+      </c>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="197"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="198"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="73"/>
+    </row>
+    <row r="38" spans="1:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -4476,8 +4916,38 @@
       <c r="E38">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G38" s="199"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="200"/>
+      <c r="L38" s="200"/>
+      <c r="M38" s="201"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="73"/>
+    </row>
+    <row r="39" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="G39" s="199"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="200"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="201"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="73"/>
+    </row>
+    <row r="40" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>180</v>
       </c>
@@ -4493,8 +4963,22 @@
       <c r="E40" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G40" s="199"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="200"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="201"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="76"/>
+    </row>
+    <row r="41" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4504,8 +4988,15 @@
       <c r="E41" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G41" s="199"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="201"/>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4515,8 +5006,15 @@
       <c r="E42" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G42" s="199"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="200"/>
+      <c r="K42" s="200"/>
+      <c r="L42" s="200"/>
+      <c r="M42" s="201"/>
+    </row>
+    <row r="43" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4526,32 +5024,4928 @@
       <c r="E43" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="176" t="s">
+      <c r="G43" s="199"/>
+      <c r="H43" s="200"/>
+      <c r="I43" s="200"/>
+      <c r="J43" s="200"/>
+      <c r="K43" s="200"/>
+      <c r="L43" s="200"/>
+      <c r="M43" s="201"/>
+    </row>
+    <row r="44" spans="1:65" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A44" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="177"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
+      <c r="B44" s="205"/>
+      <c r="G44" s="199"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="200"/>
+      <c r="K44" s="200"/>
+      <c r="L44" s="200"/>
+      <c r="M44" s="201"/>
+      <c r="S44" s="39" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" ht="120" x14ac:dyDescent="0.35">
+      <c r="A45" s="205"/>
+      <c r="B45" s="205"/>
+      <c r="G45" s="199"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
+      <c r="J45" s="200"/>
+      <c r="K45" s="200"/>
+      <c r="L45" s="200"/>
+      <c r="M45" s="201"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="T45" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="U45" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="V45" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="W45" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="X45" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y45" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z45" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA45" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB45" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC45" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD45" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE45" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF45" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG45" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH45" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI45" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ45" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="AK45" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="AL45" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM45" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="AN45" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO45" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP45" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ45" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR45" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS45" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT45" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU45" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="AV45" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="AW45" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="AX45" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY45" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ45" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA45" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB45" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC45" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD45" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="BE45" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="BF45" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="BG45" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="BH45" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="BI45" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ45" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="BK45" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL45" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM45" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="205"/>
+      <c r="B46" s="205"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="200"/>
+      <c r="K46" s="200"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="201"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="T46" s="7">
+        <v>2</v>
+      </c>
+      <c r="U46" s="7">
+        <v>29</v>
+      </c>
+      <c r="V46" s="7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="X46" s="7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>0.504</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="AB46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE46" s="7">
+        <v>29</v>
+      </c>
+      <c r="AF46" s="7">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AH46" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AI46" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AJ46" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AK46" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="AL46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO46" s="7">
+        <v>29</v>
+      </c>
+      <c r="AP46" s="7">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="AQ46" s="7">
+        <v>4.08</v>
+      </c>
+      <c r="AR46" s="7">
+        <v>4.0990000000000002</v>
+      </c>
+      <c r="AS46" s="7">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="AT46" s="7">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="AU46" s="7">
+        <v>4.0469999999999997</v>
+      </c>
+      <c r="AV46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY46" s="7">
+        <v>29</v>
+      </c>
+      <c r="AZ46" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="BA46" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BB46" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BC46" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BD46" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="BE46" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BF46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI46" s="7">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="BJ46" s="7">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="BK46" s="7">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="BL46" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BM46" s="7">
+        <v>16.088000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="205"/>
+      <c r="B47" s="205"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="200"/>
+      <c r="I47" s="200"/>
+      <c r="J47" s="200"/>
+      <c r="K47" s="200"/>
+      <c r="L47" s="200"/>
+      <c r="M47" s="201"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="T47" s="7">
+        <v>3</v>
+      </c>
+      <c r="U47" s="7">
+        <v>25</v>
+      </c>
+      <c r="V47" s="7">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="W47" s="7">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="X47" s="7">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="AC47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE47" s="7">
+        <v>25</v>
+      </c>
+      <c r="AF47" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AG47" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AH47" s="7">
+        <v>0.182</v>
+      </c>
+      <c r="AI47" s="7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AJ47" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AK47" s="7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AL47" s="7">
+        <v>0.151</v>
+      </c>
+      <c r="AM47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO47" s="7">
+        <v>25</v>
+      </c>
+      <c r="AP47" s="7">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="AQ47" s="7">
+        <v>3.98</v>
+      </c>
+      <c r="AR47" s="7">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="AS47" s="7">
+        <v>3.4809999999999999</v>
+      </c>
+      <c r="AT47" s="7">
+        <v>2.758</v>
+      </c>
+      <c r="AU47" s="7">
+        <v>3.448</v>
+      </c>
+      <c r="AV47" s="7">
+        <v>-0.879</v>
+      </c>
+      <c r="AW47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY47" s="7">
+        <v>25</v>
+      </c>
+      <c r="AZ47" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="BA47" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BB47" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BC47" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BD47" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BE47" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BF47" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="BG47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI47" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="BJ47" s="7">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="BK47" s="7">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="BL47" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BM47" s="7">
+        <v>16.960999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="205"/>
+      <c r="B48" s="205"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="200"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="201"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="T48" s="7">
+        <v>3</v>
+      </c>
+      <c r="U48" s="7">
+        <v>13</v>
+      </c>
+      <c r="V48" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="W48" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="X48" s="7">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AB48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD48" s="7">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AE48" s="7">
+        <v>13</v>
+      </c>
+      <c r="AF48" s="7">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AG48" s="7">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AH48" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AI48" s="7">
+        <v>0.153</v>
+      </c>
+      <c r="AJ48" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AK48" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="AL48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN48" s="7">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="AO48" s="7">
+        <v>13</v>
+      </c>
+      <c r="AP48" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="AQ48" s="7">
+        <v>3.867</v>
+      </c>
+      <c r="AR48" s="7">
+        <v>3.4729999999999999</v>
+      </c>
+      <c r="AS48" s="7">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="AT48" s="7">
+        <v>2.923</v>
+      </c>
+      <c r="AU48" s="7">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="AV48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX48" s="7">
+        <v>0.317</v>
+      </c>
+      <c r="AY48" s="7">
+        <v>13</v>
+      </c>
+      <c r="AZ48" s="7">
+        <v>0.121</v>
+      </c>
+      <c r="BA48" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BB48" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC48" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="BD48" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BE48" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BF48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH48" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="BI48" s="7">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="BJ48" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="BK48" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="BL48" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BM48" s="7">
+        <v>17.937999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="4:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="199"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="200"/>
+      <c r="K49" s="200"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="201"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="T49" s="7">
+        <v>3</v>
+      </c>
+      <c r="U49" s="7">
+        <v>21</v>
+      </c>
+      <c r="V49" s="7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="W49" s="7">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="X49" s="7">
+        <v>0.745</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="AB49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE49" s="7">
+        <v>21</v>
+      </c>
+      <c r="AF49" s="7">
+        <v>0.249</v>
+      </c>
+      <c r="AG49" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="AH49" s="7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AI49" s="7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AJ49" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AK49" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AL49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM49" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="AN49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO49" s="7">
+        <v>21</v>
+      </c>
+      <c r="AP49" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="AQ49" s="7">
+        <v>3.895</v>
+      </c>
+      <c r="AR49" s="7">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="AS49" s="7">
+        <v>3.4420000000000002</v>
+      </c>
+      <c r="AT49" s="7">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="AU49" s="7">
+        <v>3.9129999999999998</v>
+      </c>
+      <c r="AV49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW49" s="7">
+        <v>-0.13</v>
+      </c>
+      <c r="AX49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY49" s="7">
+        <v>21</v>
+      </c>
+      <c r="AZ49" s="7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="BA49" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BB49" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC49" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BD49" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BE49" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BF49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG49" s="7">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="BH49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI49" s="7">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="BJ49" s="7">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="BK49" s="7">
+        <v>0.311</v>
+      </c>
+      <c r="BL49" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BM49" s="7">
+        <v>18.062999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="4:65" x14ac:dyDescent="0.35">
+      <c r="G50" s="199"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="200"/>
+      <c r="L50" s="200"/>
+      <c r="M50" s="201"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="T50" s="7">
+        <v>4</v>
+      </c>
+      <c r="U50" s="7">
+        <v>9</v>
+      </c>
+      <c r="V50" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="W50" s="7">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="X50" s="7">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AB50" s="7">
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="AC50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD50" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AE50" s="7">
+        <v>9</v>
+      </c>
+      <c r="AF50" s="7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AG50" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="AH50" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AI50" s="7">
+        <v>0.155</v>
+      </c>
+      <c r="AJ50" s="7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AK50" s="7">
+        <v>0.248</v>
+      </c>
+      <c r="AL50" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="AM50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN50" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="AO50" s="7">
+        <v>9</v>
+      </c>
+      <c r="AP50" s="7">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="AQ50" s="7">
+        <v>3.754</v>
+      </c>
+      <c r="AR50" s="7">
+        <v>3.26</v>
+      </c>
+      <c r="AS50" s="7">
+        <v>3.02</v>
+      </c>
+      <c r="AT50" s="7">
+        <v>2.6339999999999999</v>
+      </c>
+      <c r="AU50" s="7">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="AV50" s="7">
+        <v>-0.878</v>
+      </c>
+      <c r="AW50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX50" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="AY50" s="7">
+        <v>9</v>
+      </c>
+      <c r="AZ50" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="BA50" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BB50" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BC50" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="BD50" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BE50" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BF50" s="7">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="BG50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH50" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="BI50" s="7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="BJ50" s="7">
+        <v>0.629</v>
+      </c>
+      <c r="BK50" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="BL50" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BM50" s="7">
+        <v>18.73</v>
+      </c>
+    </row>
+    <row r="51" spans="4:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="202"/>
+      <c r="H51" s="203"/>
+      <c r="I51" s="203"/>
+      <c r="J51" s="203"/>
+      <c r="K51" s="203"/>
+      <c r="L51" s="203"/>
+      <c r="M51" s="204"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="T51" s="7">
+        <v>4</v>
+      </c>
+      <c r="U51" s="7">
+        <v>17</v>
+      </c>
+      <c r="V51" s="7">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="W51" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="X51" s="7">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>0.501</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="AC51" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE51" s="7">
+        <v>17</v>
+      </c>
+      <c r="AF51" s="7">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AG51" s="7">
+        <v>0.247</v>
+      </c>
+      <c r="AH51" s="7">
+        <v>0.214</v>
+      </c>
+      <c r="AI51" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AJ51" s="7">
+        <v>0.214</v>
+      </c>
+      <c r="AK51" s="7">
+        <v>0.246</v>
+      </c>
+      <c r="AL51" s="7">
+        <v>0.161</v>
+      </c>
+      <c r="AM51" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="AN51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO51" s="7">
+        <v>17</v>
+      </c>
+      <c r="AP51" s="7">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="AQ51" s="7">
+        <v>3.8490000000000002</v>
+      </c>
+      <c r="AR51" s="7">
+        <v>3.472</v>
+      </c>
+      <c r="AS51" s="7">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="AT51" s="7">
+        <v>2.69</v>
+      </c>
+      <c r="AU51" s="7">
+        <v>3.302</v>
+      </c>
+      <c r="AV51" s="7">
+        <v>-0.90600000000000003</v>
+      </c>
+      <c r="AW51" s="7">
+        <v>-0.33700000000000002</v>
+      </c>
+      <c r="AX51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY51" s="7">
+        <v>17</v>
+      </c>
+      <c r="AZ51" s="7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="BA51" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="BB51" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC51" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BD51" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BE51" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BF51" s="7">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="BG51" s="7">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="BH51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI51" s="7">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="BJ51" s="7">
+        <v>0.628</v>
+      </c>
+      <c r="BK51" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="BL51" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BM51" s="7">
+        <v>18.777999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="4:65" x14ac:dyDescent="0.35">
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="T52" s="7">
+        <v>4</v>
+      </c>
+      <c r="U52" s="7">
+        <v>5</v>
+      </c>
+      <c r="V52" s="7">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="W52" s="7">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="X52" s="7">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AB52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AE52" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AG52" s="7">
+        <v>0.255</v>
+      </c>
+      <c r="AH52" s="7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AI52" s="7">
+        <v>0.161</v>
+      </c>
+      <c r="AJ52" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="AK52" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AL52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM52" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="AN52" s="7">
+        <v>0.442</v>
+      </c>
+      <c r="AO52" s="7">
+        <v>5</v>
+      </c>
+      <c r="AP52" s="7">
+        <v>1.583</v>
+      </c>
+      <c r="AQ52" s="7">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="AR52" s="7">
+        <v>3.113</v>
+      </c>
+      <c r="AS52" s="7">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="AT52" s="7">
+        <v>2.806</v>
+      </c>
+      <c r="AU52" s="7">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="AV52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW52" s="7">
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="AX52" s="7">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AY52" s="7">
+        <v>5</v>
+      </c>
+      <c r="AZ52" s="7">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BA52" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BB52" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="BC52" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BD52" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BE52" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BF52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG52" s="7">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="BH52" s="7">
+        <v>0.748</v>
+      </c>
+      <c r="BI52" s="7">
+        <v>0.745</v>
+      </c>
+      <c r="BJ52" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="BK52" s="7">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="BL52" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BM52" s="7">
+        <v>19.888999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="4:65" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="T53" s="7">
+        <v>5</v>
+      </c>
+      <c r="U53" s="7">
+        <v>1</v>
+      </c>
+      <c r="V53" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W53" s="7">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="X53" s="7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>-0.154</v>
+      </c>
+      <c r="AC53" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="AD53" s="7">
+        <v>0.193</v>
+      </c>
+      <c r="AE53" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AG53" s="7">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AH53" s="7">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AI53" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AJ53" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="AK53" s="7">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AL53" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AM53" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="AN53" s="7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AO53" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP53" s="7">
+        <v>1.82</v>
+      </c>
+      <c r="AQ53" s="7">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="AR53" s="7">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="AS53" s="7">
+        <v>2.948</v>
+      </c>
+      <c r="AT53" s="7">
+        <v>2.577</v>
+      </c>
+      <c r="AU53" s="7">
+        <v>3.081</v>
+      </c>
+      <c r="AV53" s="7">
+        <v>-0.92100000000000004</v>
+      </c>
+      <c r="AW53" s="7">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="AX53" s="7">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AY53" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ53" s="7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="BA53" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BB53" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="BC53" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BD53" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BE53" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="BF53" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="BG53" s="7">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="BH53" s="7">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="BI53" s="7">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="BJ53" s="7">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="BK53" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="BL53" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="BM53" s="7">
+        <v>20.456</v>
+      </c>
+    </row>
+    <row r="54" spans="4:65" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D54" s="196" t="s">
+        <v>210</v>
+      </c>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="T54" s="7">
+        <v>2</v>
+      </c>
+      <c r="U54" s="7">
+        <v>27</v>
+      </c>
+      <c r="V54" s="7">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="X54" s="7">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="Z54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>-0.314</v>
+      </c>
+      <c r="AC54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE54" s="7">
+        <v>27</v>
+      </c>
+      <c r="AF54" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="AG54" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="AH54" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="AI54" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="AJ54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL54" s="7">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AM54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO54" s="7">
+        <v>27</v>
+      </c>
+      <c r="AP54" s="7">
+        <v>5.2839999999999998</v>
+      </c>
+      <c r="AQ54" s="7">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="AR54" s="7">
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="AS54" s="7">
+        <v>2.5169999999999999</v>
+      </c>
+      <c r="AT54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV54" s="7">
+        <v>-1.734</v>
+      </c>
+      <c r="AW54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY54" s="7">
+        <v>27</v>
+      </c>
+      <c r="AZ54" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="7">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="BB54" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="BC54" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="BD54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF54" s="7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="BG54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI54" s="7">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="BJ54" s="7">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="BK54" s="7">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="BL54" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="BM54" s="7">
+        <v>26.138999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="4:65" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="187" t="s">
+        <v>471</v>
+      </c>
+      <c r="E55" s="188"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
+      <c r="I55" s="188"/>
+      <c r="J55" s="188"/>
+      <c r="K55" s="189"/>
+      <c r="S55" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="T55" s="7">
+        <v>1</v>
+      </c>
+      <c r="U55" s="7">
+        <v>30</v>
+      </c>
+      <c r="V55" s="7">
+        <v>0.876</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="X55" s="7">
+        <v>0.623</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AB55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE55" s="7">
+        <v>30</v>
+      </c>
+      <c r="AF55" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AG55" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AH55" s="7">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AI55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ55" s="7">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AK55" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AL55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO55" s="7">
+        <v>30</v>
+      </c>
+      <c r="AP55" s="7">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="AQ55" s="7">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="AR55" s="7">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="AS55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT55" s="7">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="AU55" s="7">
+        <v>2.9239999999999999</v>
+      </c>
+      <c r="AV55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY55" s="7">
+        <v>30</v>
+      </c>
+      <c r="AZ55" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BA55" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BB55" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BC55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD55" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="BE55" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="BF55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI55" s="7">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="BJ55" s="7">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="BK55" s="7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="BL55" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BM55" s="7">
+        <v>27.312999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="190"/>
+      <c r="E56" s="191"/>
+      <c r="F56" s="191"/>
+      <c r="G56" s="191"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="191"/>
+      <c r="J56" s="191"/>
+      <c r="K56" s="192"/>
+      <c r="S56" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="T56" s="7">
+        <v>2</v>
+      </c>
+      <c r="U56" s="7">
+        <v>14</v>
+      </c>
+      <c r="V56" s="7">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="W56" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="X56" s="7">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="AB56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD56" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AE56" s="7">
+        <v>14</v>
+      </c>
+      <c r="AF56" s="7">
+        <v>0.307</v>
+      </c>
+      <c r="AG56" s="7">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AH56" s="7">
+        <v>0.246</v>
+      </c>
+      <c r="AI56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ56" s="7">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AK56" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AL56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN56" s="7">
+        <v>0.501</v>
+      </c>
+      <c r="AO56" s="7">
+        <v>14</v>
+      </c>
+      <c r="AP56" s="7">
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="AQ56" s="7">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="AR56" s="7">
+        <v>2.101</v>
+      </c>
+      <c r="AS56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT56" s="7">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="AU56" s="7">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="AV56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX56" s="7">
+        <v>1.198</v>
+      </c>
+      <c r="AY56" s="7">
+        <v>14</v>
+      </c>
+      <c r="AZ56" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="BA56" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BB56" s="7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="BC56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD56" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="BE56" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="BF56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH56" s="7">
+        <v>0.249</v>
+      </c>
+      <c r="BI56" s="7">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="BJ56" s="7">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="BK56" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="BL56" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="BM56" s="7">
+        <v>27.391999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="190"/>
+      <c r="E57" s="191"/>
+      <c r="F57" s="191"/>
+      <c r="G57" s="191"/>
+      <c r="H57" s="191"/>
+      <c r="I57" s="191"/>
+      <c r="J57" s="191"/>
+      <c r="K57" s="192"/>
+      <c r="S57" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="T57" s="7">
+        <v>3</v>
+      </c>
+      <c r="U57" s="7">
+        <v>11</v>
+      </c>
+      <c r="V57" s="7">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="W57" s="7">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="X57" s="7">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="Z57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>-0.317</v>
+      </c>
+      <c r="AC57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD57" s="7">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AE57" s="7">
+        <v>11</v>
+      </c>
+      <c r="AF57" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AG57" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="AH57" s="7">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AI57" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AJ57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL57" s="7">
+        <v>0.184</v>
+      </c>
+      <c r="AM57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN57" s="7">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="AO57" s="7">
+        <v>11</v>
+      </c>
+      <c r="AP57" s="7">
+        <v>4.4169999999999998</v>
+      </c>
+      <c r="AQ57" s="7">
+        <v>1.796</v>
+      </c>
+      <c r="AR57" s="7">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="AS57" s="7">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="AT57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV57" s="7">
+        <v>-1.72</v>
+      </c>
+      <c r="AW57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX57" s="7">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AY57" s="7">
+        <v>11</v>
+      </c>
+      <c r="AZ57" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BA57" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="BB57" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="BC57" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="BD57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF57" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="BG57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH57" s="7">
+        <v>0.505</v>
+      </c>
+      <c r="BI57" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="BJ57" s="7">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="BK57" s="7">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="BL57" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BM57" s="7">
+        <v>27.495000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="190"/>
+      <c r="E58" s="191"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="191"/>
+      <c r="H58" s="191"/>
+      <c r="I58" s="191"/>
+      <c r="J58" s="191"/>
+      <c r="K58" s="192"/>
+      <c r="S58" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="T58" s="7">
+        <v>1</v>
+      </c>
+      <c r="U58" s="7">
+        <v>31</v>
+      </c>
+      <c r="V58" s="7">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="W58" s="7">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="X58" s="7">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="Z58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE58" s="7">
+        <v>31</v>
+      </c>
+      <c r="AF58" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AG58" s="7">
+        <v>0.255</v>
+      </c>
+      <c r="AH58" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AI58" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="AJ58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO58" s="7">
+        <v>31</v>
+      </c>
+      <c r="AP58" s="7">
+        <v>4.7220000000000004</v>
+      </c>
+      <c r="AQ58" s="7">
+        <v>1.518</v>
+      </c>
+      <c r="AR58" s="7">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="AS58" s="7">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="AT58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY58" s="7">
+        <v>31</v>
+      </c>
+      <c r="AZ58" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="BB58" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="BC58" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BD58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI58" s="7">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="BJ58" s="7">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="BK58" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="BL58" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BM58" s="7">
+        <v>27.756</v>
+      </c>
+    </row>
+    <row r="59" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="190"/>
+      <c r="E59" s="191"/>
+      <c r="F59" s="191"/>
+      <c r="G59" s="191"/>
+      <c r="H59" s="191"/>
+      <c r="I59" s="191"/>
+      <c r="J59" s="191"/>
+      <c r="K59" s="192"/>
+      <c r="S59" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="T59" s="7">
+        <v>3</v>
+      </c>
+      <c r="U59" s="7">
+        <v>10</v>
+      </c>
+      <c r="V59" s="7">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="W59" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="X59" s="7">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="AC59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD59" s="7">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AE59" s="7">
+        <v>10</v>
+      </c>
+      <c r="AF59" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AG59" s="7">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AH59" s="7">
+        <v>0.248</v>
+      </c>
+      <c r="AI59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ59" s="7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AK59" s="7">
+        <v>0.309</v>
+      </c>
+      <c r="AL59" s="7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AM59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN59" s="7">
+        <v>0.501</v>
+      </c>
+      <c r="AO59" s="7">
+        <v>10</v>
+      </c>
+      <c r="AP59" s="7">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AQ59" s="7">
+        <v>2.464</v>
+      </c>
+      <c r="AR59" s="7">
+        <v>1.958</v>
+      </c>
+      <c r="AS59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT59" s="7">
+        <v>1.948</v>
+      </c>
+      <c r="AU59" s="7">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="AV59" s="7">
+        <v>-1.0169999999999999</v>
+      </c>
+      <c r="AW59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX59" s="7">
+        <v>1.232</v>
+      </c>
+      <c r="AY59" s="7">
+        <v>10</v>
+      </c>
+      <c r="AZ59" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BA59" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="BB59" s="7">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="BC59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD59" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="BE59" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="BF59" s="7">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="BG59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH59" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="BI59" s="7">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="BJ59" s="7">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="BK59" s="7">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="BL59" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="BM59" s="7">
+        <v>27.895</v>
+      </c>
+    </row>
+    <row r="60" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D60" s="190"/>
+      <c r="E60" s="191"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="191"/>
+      <c r="H60" s="191"/>
+      <c r="I60" s="191"/>
+      <c r="J60" s="191"/>
+      <c r="K60" s="192"/>
+      <c r="S60" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="T60" s="7">
+        <v>3</v>
+      </c>
+      <c r="U60" s="7">
+        <v>19</v>
+      </c>
+      <c r="V60" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="W60" s="7">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="X60" s="7">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="Z60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB60" s="7">
+        <v>-0.32700000000000001</v>
+      </c>
+      <c r="AC60" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="AD60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE60" s="7">
+        <v>19</v>
+      </c>
+      <c r="AF60" s="7">
+        <v>0.249</v>
+      </c>
+      <c r="AG60" s="7">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AH60" s="7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="AI60" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="AJ60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL60" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="AM60" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO60" s="7">
+        <v>19</v>
+      </c>
+      <c r="AP60" s="7">
+        <v>5.141</v>
+      </c>
+      <c r="AQ60" s="7">
+        <v>1.861</v>
+      </c>
+      <c r="AR60" s="7">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="AS60" s="7">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="AT60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV60" s="7">
+        <v>-1.72</v>
+      </c>
+      <c r="AW60" s="7">
+        <v>-0.34</v>
+      </c>
+      <c r="AX60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY60" s="7">
+        <v>19</v>
+      </c>
+      <c r="AZ60" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA60" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="BB60" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="BC60" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BD60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF60" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="BG60" s="7">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="BH60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI60" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="BJ60" s="7">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="BK60" s="7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="BL60" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BM60" s="7">
+        <v>27.977</v>
+      </c>
+    </row>
+    <row r="61" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="190"/>
+      <c r="E61" s="191"/>
+      <c r="F61" s="191"/>
+      <c r="G61" s="191"/>
+      <c r="H61" s="191"/>
+      <c r="I61" s="191"/>
+      <c r="J61" s="191"/>
+      <c r="K61" s="192"/>
+      <c r="S61" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="T61" s="7">
+        <v>2</v>
+      </c>
+      <c r="U61" s="7">
+        <v>26</v>
+      </c>
+      <c r="V61" s="7">
+        <v>1.026</v>
+      </c>
+      <c r="W61" s="7">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="X61" s="7">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>0.749</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>-0.191</v>
+      </c>
+      <c r="AC61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE61" s="7">
+        <v>26</v>
+      </c>
+      <c r="AF61" s="7">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AG61" s="7">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AH61" s="7">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AI61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ61" s="7">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AK61" s="7">
+        <v>0.312</v>
+      </c>
+      <c r="AL61" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AM61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO61" s="7">
+        <v>26</v>
+      </c>
+      <c r="AP61" s="7">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="AQ61" s="7">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="AR61" s="7">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="AS61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT61" s="7">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="AU61" s="7">
+        <v>2.403</v>
+      </c>
+      <c r="AV61" s="7">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="AW61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY61" s="7">
+        <v>26</v>
+      </c>
+      <c r="AZ61" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BA61" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BB61" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="BC61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD61" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="BE61" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="BF61" s="7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="BG61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI61" s="7">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="BJ61" s="7">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="BK61" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="BL61" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BM61" s="7">
+        <v>28.056999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D62" s="190"/>
+      <c r="E62" s="191"/>
+      <c r="F62" s="191"/>
+      <c r="G62" s="191"/>
+      <c r="H62" s="191"/>
+      <c r="I62" s="191"/>
+      <c r="J62" s="191"/>
+      <c r="K62" s="192"/>
+      <c r="S62" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="T62" s="7">
+        <v>2</v>
+      </c>
+      <c r="U62" s="7">
+        <v>22</v>
+      </c>
+      <c r="V62" s="7">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="W62" s="7">
+        <v>0.751</v>
+      </c>
+      <c r="X62" s="7">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="Y62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="AB62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AD62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE62" s="7">
+        <v>22</v>
+      </c>
+      <c r="AF62" s="7">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AG62" s="7">
+        <v>0.312</v>
+      </c>
+      <c r="AH62" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AI62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ62" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AK62" s="7">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AL62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM62" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO62" s="7">
+        <v>22</v>
+      </c>
+      <c r="AP62" s="7">
+        <v>2.984</v>
+      </c>
+      <c r="AQ62" s="7">
+        <v>2.4049999999999998</v>
+      </c>
+      <c r="AR62" s="7">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AS62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT62" s="7">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="AU62" s="7">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="AV62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW62" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AX62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY62" s="7">
+        <v>22</v>
+      </c>
+      <c r="AZ62" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BA62" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="BB62" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="BC62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD62" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="BE62" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BF62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG62" s="7">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="BH62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI62" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="BJ62" s="7">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="BK62" s="7">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="BL62" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="BM62" s="7">
+        <v>28.937000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D63" s="190"/>
+      <c r="E63" s="191"/>
+      <c r="F63" s="191"/>
+      <c r="G63" s="191"/>
+      <c r="H63" s="191"/>
+      <c r="I63" s="191"/>
+      <c r="J63" s="191"/>
+      <c r="K63" s="192"/>
+      <c r="S63" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="T63" s="7">
+        <v>4</v>
+      </c>
+      <c r="U63" s="7">
+        <v>3</v>
+      </c>
+      <c r="V63" s="7">
+        <v>1.198</v>
+      </c>
+      <c r="W63" s="7">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="X63" s="7">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="Z63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>-0.33500000000000002</v>
+      </c>
+      <c r="AC63" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="AD63" s="7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AE63" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF63" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AG63" s="7">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AH63" s="7">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AI63" s="7">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AJ63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL63" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AM63" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN63" s="7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AO63" s="7">
+        <v>3</v>
+      </c>
+      <c r="AP63" s="7">
+        <v>4.3109999999999999</v>
+      </c>
+      <c r="AQ63" s="7">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="AR63" s="7">
+        <v>2.2909999999999999</v>
+      </c>
+      <c r="AS63" s="7">
+        <v>2.081</v>
+      </c>
+      <c r="AT63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV63" s="7">
+        <v>-1.728</v>
+      </c>
+      <c r="AW63" s="7">
+        <v>-0.437</v>
+      </c>
+      <c r="AX63" s="7">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AY63" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ63" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BA63" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="BB63" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="BC63" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="BD63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF63" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="BG63" s="7">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="BH63" s="7">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="BI63" s="7">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="BJ63" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="BK63" s="7">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="BL63" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BM63" s="7">
+        <v>29.21</v>
+      </c>
+    </row>
+    <row r="64" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="190"/>
+      <c r="E64" s="191"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="191"/>
+      <c r="H64" s="191"/>
+      <c r="I64" s="191"/>
+      <c r="J64" s="191"/>
+      <c r="K64" s="192"/>
+      <c r="S64" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="T64" s="7">
+        <v>2</v>
+      </c>
+      <c r="U64" s="7">
+        <v>15</v>
+      </c>
+      <c r="V64" s="7">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="W64" s="7">
+        <v>0.374</v>
+      </c>
+      <c r="X64" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="Y64" s="7">
+        <v>0.437</v>
+      </c>
+      <c r="Z64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD64" s="7">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AE64" s="7">
+        <v>15</v>
+      </c>
+      <c r="AF64" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AG64" s="7">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AH64" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AI64" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AJ64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN64" s="7">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AO64" s="7">
+        <v>15</v>
+      </c>
+      <c r="AP64" s="7">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="AQ64" s="7">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="AR64" s="7">
+        <v>2.4769999999999999</v>
+      </c>
+      <c r="AS64" s="7">
+        <v>2.129</v>
+      </c>
+      <c r="AT64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX64" s="7">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AY64" s="7">
+        <v>15</v>
+      </c>
+      <c r="AZ64" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="BA64" s="7">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="BB64" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC64" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="BD64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH64" s="7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="BI64" s="7">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="BJ64" s="7">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="BK64" s="7">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="BL64" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="BM64" s="7">
+        <v>29.274999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="190"/>
+      <c r="E65" s="191"/>
+      <c r="F65" s="191"/>
+      <c r="G65" s="191"/>
+      <c r="H65" s="191"/>
+      <c r="I65" s="191"/>
+      <c r="J65" s="191"/>
+      <c r="K65" s="192"/>
+      <c r="S65" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="T65" s="7">
+        <v>3</v>
+      </c>
+      <c r="U65" s="7">
+        <v>6</v>
+      </c>
+      <c r="V65" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="W65" s="7">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="X65" s="7">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="Y65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z65" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AB65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC65" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AD65" s="7">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="AE65" s="7">
+        <v>6</v>
+      </c>
+      <c r="AF65" s="7">
+        <v>0.317</v>
+      </c>
+      <c r="AG65" s="7">
+        <v>0.311</v>
+      </c>
+      <c r="AH65" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AI65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ65" s="7">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AK65" s="7">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AL65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM65" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN65" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="AO65" s="7">
+        <v>6</v>
+      </c>
+      <c r="AP65" s="7">
+        <v>2.238</v>
+      </c>
+      <c r="AQ65" s="7">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="AR65" s="7">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="AS65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT65" s="7">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="AU65" s="7">
+        <v>2.734</v>
+      </c>
+      <c r="AV65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW65" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AX65" s="7">
+        <v>1.073</v>
+      </c>
+      <c r="AY65" s="7">
+        <v>6</v>
+      </c>
+      <c r="AZ65" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BA65" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="BB65" s="7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="BC65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD65" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="BE65" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BF65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG65" s="7">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="BH65" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="BI65" s="7">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="BJ65" s="7">
+        <v>0.373</v>
+      </c>
+      <c r="BK65" s="7">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="BL65" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="BM65" s="7">
+        <v>29.277999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D66" s="190"/>
+      <c r="E66" s="191"/>
+      <c r="F66" s="191"/>
+      <c r="G66" s="191"/>
+      <c r="H66" s="191"/>
+      <c r="I66" s="191"/>
+      <c r="J66" s="191"/>
+      <c r="K66" s="192"/>
+      <c r="S66" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="T66" s="7">
+        <v>2</v>
+      </c>
+      <c r="U66" s="7">
+        <v>23</v>
+      </c>
+      <c r="V66" s="7">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="W66" s="7">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="X66" s="7">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Y66" s="7">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="Z66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC66" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE66" s="7">
+        <v>23</v>
+      </c>
+      <c r="AF66" s="7">
+        <v>0.246</v>
+      </c>
+      <c r="AG66" s="7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="AH66" s="7">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AI66" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="AJ66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM66" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO66" s="7">
+        <v>23</v>
+      </c>
+      <c r="AP66" s="7">
+        <v>4.5759999999999996</v>
+      </c>
+      <c r="AQ66" s="7">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="AR66" s="7">
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="AS66" s="7">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="AT66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW66" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AX66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY66" s="7">
+        <v>23</v>
+      </c>
+      <c r="AZ66" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA66" s="7">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="BB66" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BC66" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="BD66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG66" s="7">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="BH66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI66" s="7">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="BJ66" s="7">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="BK66" s="7">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="BL66" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="BM66" s="7">
+        <v>29.756</v>
+      </c>
+    </row>
+    <row r="67" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D67" s="190"/>
+      <c r="E67" s="191"/>
+      <c r="F67" s="191"/>
+      <c r="G67" s="191"/>
+      <c r="H67" s="191"/>
+      <c r="I67" s="191"/>
+      <c r="J67" s="191"/>
+      <c r="K67" s="192"/>
+      <c r="S67" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="T67" s="7">
+        <v>1</v>
+      </c>
+      <c r="U67" s="7">
+        <v>28</v>
+      </c>
+      <c r="V67" s="7">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="W67" s="7">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="X67" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB67" s="7">
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="AC67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE67" s="7">
+        <v>28</v>
+      </c>
+      <c r="AF67" s="7">
+        <v>0.215</v>
+      </c>
+      <c r="AG67" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AH67" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="AI67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL67" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AM67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO67" s="7">
+        <v>28</v>
+      </c>
+      <c r="AP67" s="7">
+        <v>7.649</v>
+      </c>
+      <c r="AQ67" s="7">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="AR67" s="7">
+        <v>2.331</v>
+      </c>
+      <c r="AS67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV67" s="7">
+        <v>-1.7070000000000001</v>
+      </c>
+      <c r="AW67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY67" s="7">
+        <v>28</v>
+      </c>
+      <c r="AZ67" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="BB67" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="BC67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF67" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="BG67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI67" s="7">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="BJ67" s="7">
+        <v>0.249</v>
+      </c>
+      <c r="BK67" s="7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="BL67" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="BM67" s="7">
+        <v>31.145</v>
+      </c>
+    </row>
+    <row r="68" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D68" s="190"/>
+      <c r="E68" s="191"/>
+      <c r="F68" s="191"/>
+      <c r="G68" s="191"/>
+      <c r="H68" s="191"/>
+      <c r="I68" s="191"/>
+      <c r="J68" s="191"/>
+      <c r="K68" s="192"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68" t="s">
+        <v>496</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>12</v>
+      </c>
+      <c r="V68">
+        <v>1.411</v>
+      </c>
+      <c r="W68">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="X68">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB68">
+        <v>-0.35099999999999998</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD68">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AE68">
+        <v>12</v>
+      </c>
+      <c r="AF68">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AG68">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="AH68">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL68">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AO68">
+        <v>12</v>
+      </c>
+      <c r="AP68">
+        <v>5.15</v>
+      </c>
+      <c r="AQ68">
+        <v>1.248</v>
+      </c>
+      <c r="AR68">
+        <v>1.74</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV68">
+        <v>-1.7370000000000001</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX68">
+        <v>1.349</v>
+      </c>
+      <c r="AY68">
+        <v>12</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0.23</v>
+      </c>
+      <c r="BB68">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE68" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF68">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="BG68" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH68">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="BI68">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="BJ68">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="BK68">
+        <v>0.435</v>
+      </c>
+      <c r="BL68">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="BM68">
+        <v>30.884</v>
+      </c>
+    </row>
+    <row r="69" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D69" s="190"/>
+      <c r="E69" s="191"/>
+      <c r="F69" s="191"/>
+      <c r="G69" s="191"/>
+      <c r="H69" s="191"/>
+      <c r="I69" s="191"/>
+      <c r="J69" s="191"/>
+      <c r="K69" s="192"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69" t="s">
+        <v>502</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>18</v>
+      </c>
+      <c r="V69">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="W69">
+        <v>0.749</v>
+      </c>
+      <c r="X69">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z69">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="AA69">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AB69">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="AC69">
+        <v>1E-3</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE69">
+        <v>18</v>
+      </c>
+      <c r="AF69">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="AG69">
+        <v>0.316</v>
+      </c>
+      <c r="AH69">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ69">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AK69">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AL69">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AM69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO69">
+        <v>18</v>
+      </c>
+      <c r="AP69">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="AQ69">
+        <v>2.3719999999999999</v>
+      </c>
+      <c r="AR69">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT69">
+        <v>1.879</v>
+      </c>
+      <c r="AU69">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="AV69">
+        <v>-0.82899999999999996</v>
+      </c>
+      <c r="AW69">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY69">
+        <v>18</v>
+      </c>
+      <c r="AZ69">
+        <v>0.01</v>
+      </c>
+      <c r="BA69">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="BB69">
+        <v>0.06</v>
+      </c>
+      <c r="BC69" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD69">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="BE69">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="BF69">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="BG69">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="BH69" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI69">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="BJ69">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="BK69">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="BL69">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="BM69">
+        <v>29.931000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D70" s="190"/>
+      <c r="E70" s="191"/>
+      <c r="F70" s="191"/>
+      <c r="G70" s="191"/>
+      <c r="H70" s="191"/>
+      <c r="I70" s="191"/>
+      <c r="J70" s="191"/>
+      <c r="K70" s="192"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70" t="s">
+        <v>486</v>
+      </c>
+      <c r="T70">
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="W70">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="X70">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z70">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AB70">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AE70">
+        <v>2</v>
+      </c>
+      <c r="AF70">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AG70">
+        <v>0.312</v>
+      </c>
+      <c r="AH70">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ70">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="AK70">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AL70">
+        <v>0.21</v>
+      </c>
+      <c r="AM70">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN70">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AO70">
+        <v>2</v>
+      </c>
+      <c r="AP70">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="AQ70">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="AR70">
+        <v>1.744</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT70">
+        <v>1.863</v>
+      </c>
+      <c r="AU70">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="AV70">
+        <v>-0.94099999999999995</v>
+      </c>
+      <c r="AW70">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AX70">
+        <v>1.151</v>
+      </c>
+      <c r="AY70">
+        <v>2</v>
+      </c>
+      <c r="AZ70">
+        <v>3.1E-2</v>
+      </c>
+      <c r="BA70">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="BB70">
+        <v>0.105</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD70">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="BE70">
+        <v>4.7E-2</v>
+      </c>
+      <c r="BF70">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="BG70">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="BH70">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="BI70">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="BJ70">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="BK70">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="BL70">
+        <v>0.06</v>
+      </c>
+      <c r="BM70">
+        <v>29.893999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D71" s="190"/>
+      <c r="E71" s="191"/>
+      <c r="F71" s="191"/>
+      <c r="G71" s="191"/>
+      <c r="H71" s="191"/>
+      <c r="I71" s="191"/>
+      <c r="J71" s="191"/>
+      <c r="K71" s="192"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71" t="s">
+        <v>491</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
+        <v>7</v>
+      </c>
+      <c r="V71">
+        <v>1.048</v>
+      </c>
+      <c r="W71">
+        <v>0.377</v>
+      </c>
+      <c r="X71">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0.439</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AE71">
+        <v>7</v>
+      </c>
+      <c r="AF71">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AG71">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AH71">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AI71">
+        <v>0.215</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN71">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="AO71">
+        <v>7</v>
+      </c>
+      <c r="AP71">
+        <v>3.7309999999999999</v>
+      </c>
+      <c r="AQ71">
+        <v>1.37</v>
+      </c>
+      <c r="AR71">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="AS71">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW71">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="AX71">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>2E-3</v>
+      </c>
+      <c r="BA71">
+        <v>0.191</v>
+      </c>
+      <c r="BB71">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="BC71">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG71">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="BH71">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="BI71">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="BJ71">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="BK71">
+        <v>0.432</v>
+      </c>
+      <c r="BL71">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="BM71">
+        <v>31.268000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D72" s="190"/>
+      <c r="E72" s="191"/>
+      <c r="F72" s="191"/>
+      <c r="G72" s="191"/>
+      <c r="H72" s="191"/>
+      <c r="I72" s="191"/>
+      <c r="J72" s="191"/>
+      <c r="K72" s="192"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72" t="s">
+        <v>500</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>16</v>
+      </c>
+      <c r="V72">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="W72">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="X72">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD72">
+        <v>0.75</v>
+      </c>
+      <c r="AE72">
+        <v>16</v>
+      </c>
+      <c r="AF72">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AG72">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AH72">
+        <v>0.27</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN72">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AO72">
+        <v>16</v>
+      </c>
+      <c r="AP72">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="AQ72">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AR72">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX72">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="AY72">
+        <v>16</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="BB72">
+        <v>9.4E-2</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG72" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH72">
+        <v>0.215</v>
+      </c>
+      <c r="BI72">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="BJ72">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="BK72">
+        <v>0.46</v>
+      </c>
+      <c r="BL72">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="BM72">
+        <v>32.512</v>
+      </c>
+    </row>
+    <row r="73" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D73" s="190"/>
+      <c r="E73" s="191"/>
+      <c r="F73" s="191"/>
+      <c r="G73" s="191"/>
+      <c r="H73" s="191"/>
+      <c r="I73" s="191"/>
+      <c r="J73" s="191"/>
+      <c r="K73" s="192"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73" t="s">
+        <v>488</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>4</v>
+      </c>
+      <c r="V73">
+        <v>1.415</v>
+      </c>
+      <c r="W73">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="X73">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB73">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0.754</v>
+      </c>
+      <c r="AE73">
+        <v>4</v>
+      </c>
+      <c r="AF73">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AG73">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AH73">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL73">
+        <v>0.214</v>
+      </c>
+      <c r="AM73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN73">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="AO73">
+        <v>4</v>
+      </c>
+      <c r="AP73">
+        <v>4.968</v>
+      </c>
+      <c r="AQ73">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="AR73">
+        <v>1.54</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV73">
+        <v>-1.6619999999999999</v>
+      </c>
+      <c r="AW73">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="AX73">
+        <v>1.298</v>
+      </c>
+      <c r="AY73">
+        <v>4</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0.248</v>
+      </c>
+      <c r="BB73">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF73">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="BG73">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="BH73">
+        <v>0.214</v>
+      </c>
+      <c r="BI73">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="BJ73">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="BK73">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="BL73">
+        <v>0.104</v>
+      </c>
+      <c r="BM73">
+        <v>32.869999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D74" s="190"/>
+      <c r="E74" s="191"/>
+      <c r="F74" s="191"/>
+      <c r="G74" s="191"/>
+      <c r="H74" s="191"/>
+      <c r="I74" s="191"/>
+      <c r="J74" s="191"/>
+      <c r="K74" s="192"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74" t="s">
+        <v>504</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>20</v>
+      </c>
+      <c r="V74">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="W74">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="X74">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB74">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="AC74">
+        <v>1E-3</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE74">
+        <v>20</v>
+      </c>
+      <c r="AF74">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AG74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH74">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL74">
+        <v>0.218</v>
+      </c>
+      <c r="AM74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO74">
+        <v>20</v>
+      </c>
+      <c r="AP74">
+        <v>7.0259999999999998</v>
+      </c>
+      <c r="AQ74">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="AR74">
+        <v>1.825</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV74">
+        <v>-1.579</v>
+      </c>
+      <c r="AW74">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY74">
+        <v>20</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="BB74">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF74">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="BG74">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="BH74" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI74">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="BJ74">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="BK74">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="BL74">
+        <v>0.106</v>
+      </c>
+      <c r="BM74">
+        <v>33.106000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="4:65" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D75" s="190"/>
+      <c r="E75" s="191"/>
+      <c r="F75" s="191"/>
+      <c r="G75" s="191"/>
+      <c r="H75" s="191"/>
+      <c r="I75" s="191"/>
+      <c r="J75" s="191"/>
+      <c r="K75" s="192"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75" t="s">
+        <v>508</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>24</v>
+      </c>
+      <c r="V75">
+        <v>1.48</v>
+      </c>
+      <c r="W75">
+        <v>0.217</v>
+      </c>
+      <c r="X75">
+        <v>0.52</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC75">
+        <v>2E-3</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE75">
+        <v>24</v>
+      </c>
+      <c r="AF75">
+        <v>0.22</v>
+      </c>
+      <c r="AG75">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AH75">
+        <v>0.31</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO75">
+        <v>24</v>
+      </c>
+      <c r="AP75">
+        <v>6.7290000000000001</v>
+      </c>
+      <c r="AQ75">
+        <v>0.74</v>
+      </c>
+      <c r="AR75">
+        <v>1.68</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW75">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY75">
+        <v>24</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="BB75">
+        <v>0.111</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG75">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="BH75" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI75">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="BJ75">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="BK75">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="BL75">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="BM75">
+        <v>34.146999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="4:65" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D76" s="193"/>
+      <c r="E76" s="194"/>
+      <c r="F76" s="194"/>
+      <c r="G76" s="194"/>
+      <c r="H76" s="194"/>
+      <c r="I76" s="194"/>
+      <c r="J76" s="194"/>
+      <c r="K76" s="195"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76" t="s">
+        <v>492</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+      <c r="U76">
+        <v>8</v>
+      </c>
+      <c r="V76">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="W76">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="X76">
+        <v>0.44</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC76">
+        <v>1E-3</v>
+      </c>
+      <c r="AD76">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AE76">
+        <v>8</v>
+      </c>
+      <c r="AF76">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AG76">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AH76">
+        <v>0.314</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN76">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="AO76">
+        <v>8</v>
+      </c>
+      <c r="AP76">
+        <v>4.444</v>
+      </c>
+      <c r="AQ76">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AR76">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW76">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AX76">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="AY76">
+        <v>8</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="BB76">
+        <v>0.18</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG76">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="BH76">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="BI76">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="BJ76">
+        <v>0.153</v>
+      </c>
+      <c r="BK76">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="BL76">
+        <v>0.16</v>
+      </c>
+      <c r="BM76">
+        <v>34.417999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B45:C49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S46:BM67">
+    <sortCondition ref="BM46:BM67"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="D55:K76"/>
+    <mergeCell ref="O31:U40"/>
+    <mergeCell ref="G37:M51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4562,8 +9956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30869233-F29A-4E67-90DD-3705312AD6C9}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:C55"/>
+    <sheetView topLeftCell="A7" zoomScale="48" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5137,26 +10531,26 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="176" t="s">
+      <c r="B51" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="177"/>
+      <c r="C51" s="186"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="177"/>
-      <c r="C52" s="177"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="186"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="186"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="186"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
+      <c r="B55" s="186"/>
+      <c r="C55" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5168,10 +10562,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B327C9BE-F5D4-4F79-B22A-F6E44F5747D5}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:AU57"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5180,6 +10574,7 @@
     <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="68.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -5342,47 +10737,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16">
-        <v>0.11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -5399,7 +10810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>97</v>
       </c>
@@ -5407,15 +10818,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>124</v>
       </c>
       <c r="E21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H21" s="68" t="s">
+        <v>531</v>
+      </c>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="70"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>229</v>
       </c>
@@ -5431,32 +10851,60 @@
       <c r="E22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>100</v>
       </c>
       <c r="E23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>71</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="73"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>125</v>
       </c>
       <c r="E25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>461</v>
       </c>
@@ -5472,50 +10920,1125 @@
       <c r="E26">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>71</v>
       </c>
       <c r="E27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="73"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>120</v>
       </c>
       <c r="E28">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="176" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="177"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="74"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="76"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B32" s="185" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="186"/>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="B36" s="186"/>
+      <c r="C36" s="186"/>
+    </row>
+    <row r="39" spans="1:47" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="196" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" s="22" customFormat="1" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="209" t="s">
+        <v>520</v>
+      </c>
+      <c r="B40" s="207"/>
+      <c r="C40" s="210"/>
+      <c r="I40" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="P40" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="S40" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="T40" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="U40" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="V40" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="W40" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="X40" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y40" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z40" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA40" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB40" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC40" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD40" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE40" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF40" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG40" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH40" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="AI40" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ40" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK40" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL40" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM40" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN40" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO40" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP40" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="AQ40" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR40" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS40" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT40" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU40" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A41" s="211"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="212"/>
+      <c r="I41" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="J41" s="7">
+        <v>3</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1.3541612641401299</v>
+      </c>
+      <c r="M41" s="7">
+        <v>6.2027243070041801E-2</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0.65291914035777598</v>
+      </c>
+      <c r="O41" s="7">
+        <v>-0.27775379885628299</v>
+      </c>
+      <c r="P41" s="7">
+        <v>-0.52196271577932096</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>-7.4149546912086903E-2</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0.52706241725303704</v>
+      </c>
+      <c r="S41" s="7">
+        <v>1</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0.32446052103769701</v>
+      </c>
+      <c r="U41" s="7">
+        <v>0.30714080280716499</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0.26139139780746101</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0.22524707065541799</v>
+      </c>
+      <c r="X41" s="7">
+        <v>0.26741871881283302</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>0.26237744728662099</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>0.26497969384597497</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>4.1735779126817096</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>0.201950514236902</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>2.4978600896373502</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>-1.23310726327354</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>-1.9518555697839699</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>-0.28260640416661198</v>
+      </c>
+      <c r="AH41" s="7">
+        <v>1.98906719833182</v>
+      </c>
+      <c r="AI41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="7">
+        <v>1.0920654704693301E-3</v>
+      </c>
+      <c r="AK41" s="7">
+        <v>0.84308136562240399</v>
+      </c>
+      <c r="AL41" s="7">
+        <v>2.6696287000210001E-2</v>
+      </c>
+      <c r="AM41" s="7">
+        <v>0.23936878439595999</v>
+      </c>
+      <c r="AN41" s="7">
+        <v>7.2836347762741505E-2</v>
+      </c>
+      <c r="AO41" s="7">
+        <v>0.78192811897452297</v>
+      </c>
+      <c r="AP41" s="7">
+        <v>6.8160744351144206E-2</v>
+      </c>
+      <c r="AQ41" s="7">
+        <v>0.57570918627716405</v>
+      </c>
+      <c r="AR41" s="7">
+        <v>0.37988265686662398</v>
+      </c>
+      <c r="AS41" s="7">
+        <v>0.44453696817368199</v>
+      </c>
+      <c r="AT41" s="7">
+        <v>4.8723110395606999E-2</v>
+      </c>
+      <c r="AU41" s="7">
+        <v>31.713000626671501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A42" s="211"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="212"/>
+      <c r="I42" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="J42" s="7">
+        <v>2</v>
+      </c>
+      <c r="K42" s="7">
+        <v>2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>1.2142011813689</v>
+      </c>
+      <c r="M42" s="7">
+        <v>-0.118740573345752</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0.570765915702106</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P42" s="7">
+        <v>-0.53304042206361002</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>-9.8835132432430299E-3</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0.62859316856853797</v>
+      </c>
+      <c r="S42" s="7">
+        <v>2</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0.32025020771958801</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0.29237790887326598</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0.25813566466363802</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="X42" s="7">
+        <v>0.26110899082894901</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0.25897163708221599</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>0.26314099805763802</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>3.7914141883463</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>-0.40612019493313101</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>2.2111083195180998</v>
+      </c>
+      <c r="AE42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>-2.0414479806740999</v>
+      </c>
+      <c r="AG42" s="7">
+        <v>-3.8164462157318398E-2</v>
+      </c>
+      <c r="AH42" s="7">
+        <v>2.3888074196285101</v>
+      </c>
+      <c r="AI42" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ42" s="7">
+        <v>1.7741014340728501E-3</v>
+      </c>
+      <c r="AK42" s="7">
+        <v>0.69038892916524397</v>
+      </c>
+      <c r="AL42" s="7">
+        <v>4.2974116142882698E-2</v>
+      </c>
+      <c r="AM42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN42" s="7">
+        <v>5.9204962294744902E-2</v>
+      </c>
+      <c r="AO42" s="7">
+        <v>0.97005985774395398</v>
+      </c>
+      <c r="AP42" s="7">
+        <v>3.0484177558762902E-2</v>
+      </c>
+      <c r="AQ42" s="7">
+        <v>0.50051528666260303</v>
+      </c>
+      <c r="AR42" s="7">
+        <v>0.33402038221680502</v>
+      </c>
+      <c r="AS42" s="7">
+        <v>0.45473925001794402</v>
+      </c>
+      <c r="AT42" s="7">
+        <v>4.4738454551138403E-2</v>
+      </c>
+      <c r="AU42" s="7">
+        <v>33.432195175732602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A43" s="211"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="212"/>
+      <c r="I43" t="s">
+        <v>526</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>1.2266922825256099</v>
+      </c>
+      <c r="M43">
+        <v>7.3922290264151203E-2</v>
+      </c>
+      <c r="N43">
+        <v>0.60628998072102502</v>
+      </c>
+      <c r="O43">
+        <v>-0.39034570370619998</v>
+      </c>
+      <c r="P43" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>207</v>
+      </c>
+      <c r="R43">
+        <v>0.55362075169272196</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>0.277164639526292</v>
+      </c>
+      <c r="U43">
+        <v>0.32874193192568701</v>
+      </c>
+      <c r="V43">
+        <v>0.28018042254657199</v>
+      </c>
+      <c r="W43">
+        <v>0.23670176556418801</v>
+      </c>
+      <c r="X43" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z43">
+        <v>0.26168364786369203</v>
+      </c>
+      <c r="AA43">
+        <v>3</v>
+      </c>
+      <c r="AB43">
+        <v>4.4258614108285004</v>
+      </c>
+      <c r="AC43">
+        <v>0.22486419615268799</v>
+      </c>
+      <c r="AD43">
+        <v>2.1639269982193201</v>
+      </c>
+      <c r="AE43">
+        <v>-1.64910347320729</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH43">
+        <v>2.1156108003397098</v>
+      </c>
+      <c r="AI43">
+        <v>3</v>
+      </c>
+      <c r="AJ43">
+        <v>4.9083352812060203E-4</v>
+      </c>
+      <c r="AK43">
+        <v>0.82511947626426596</v>
+      </c>
+      <c r="AL43">
+        <v>4.7016030526951101E-2</v>
+      </c>
+      <c r="AM43">
+        <v>0.11990620902047699</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP43">
+        <v>5.15178258725668E-2</v>
+      </c>
+      <c r="AQ43">
+        <v>0.42782330579825001</v>
+      </c>
+      <c r="AR43">
+        <v>0.27524285401111698</v>
+      </c>
+      <c r="AS43">
+        <v>0.48058166469471097</v>
+      </c>
+      <c r="AT43">
+        <v>6.3917767926742794E-2</v>
+      </c>
+      <c r="AU43">
+        <v>33.693575588285803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A44" s="211"/>
+      <c r="B44" s="208"/>
+      <c r="C44" s="212"/>
+      <c r="I44" t="s">
+        <v>527</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>1.0835655245</v>
+      </c>
+      <c r="M44">
+        <v>-0.1136964365</v>
+      </c>
+      <c r="N44">
+        <v>0.47183757166666701</v>
+      </c>
+      <c r="O44" t="s">
+        <v>207</v>
+      </c>
+      <c r="P44" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>207</v>
+      </c>
+      <c r="R44">
+        <v>0.66205011383333301</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>0.27301804373973199</v>
+      </c>
+      <c r="U44">
+        <v>0.31960261968033499</v>
+      </c>
+      <c r="V44">
+        <v>0.27802796700579702</v>
+      </c>
+      <c r="W44" t="s">
+        <v>207</v>
+      </c>
+      <c r="X44" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z44">
+        <v>0.262711735077932</v>
+      </c>
+      <c r="AA44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <v>3.96884216756371</v>
+      </c>
+      <c r="AC44">
+        <v>-0.35574313068434299</v>
+      </c>
+      <c r="AD44">
+        <v>1.6970867238576399</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH44">
+        <v>2.5200629642103398</v>
+      </c>
+      <c r="AI44">
+        <v>4</v>
+      </c>
+      <c r="AJ44">
+        <v>9.91977376267541E-4</v>
+      </c>
+      <c r="AK44">
+        <v>0.72640899187840802</v>
+      </c>
+      <c r="AL44">
+        <v>0.107910981416576</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP44">
+        <v>2.20235969867849E-2</v>
+      </c>
+      <c r="AQ44">
+        <v>0.319831637150295</v>
+      </c>
+      <c r="AR44">
+        <v>0.19980192605916999</v>
+      </c>
+      <c r="AS44">
+        <v>0.49846047054060999</v>
+      </c>
+      <c r="AT44">
+        <v>8.0876773246221903E-2</v>
+      </c>
+      <c r="AU44">
+        <v>35.916225867173303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A45" s="211"/>
+      <c r="B45" s="208"/>
+      <c r="C45" s="212"/>
+      <c r="I45" t="s">
+        <v>528</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>1.7960814092961099</v>
+      </c>
+      <c r="M45">
+        <v>0.29186707125919498</v>
+      </c>
+      <c r="N45">
+        <v>0.58605328833359005</v>
+      </c>
+      <c r="O45">
+        <v>-0.37282810529597199</v>
+      </c>
+      <c r="P45">
+        <v>-0.63069818469772398</v>
+      </c>
+      <c r="Q45">
+        <v>-0.28645139624343302</v>
+      </c>
+      <c r="R45" t="s">
+        <v>207</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <v>0.26023122757455502</v>
+      </c>
+      <c r="U45">
+        <v>0.313184613121822</v>
+      </c>
+      <c r="V45">
+        <v>0.28528068577451599</v>
+      </c>
+      <c r="W45">
+        <v>0.24224593939137901</v>
+      </c>
+      <c r="X45">
+        <v>0.28808794341831401</v>
+      </c>
+      <c r="Y45">
+        <v>0.26378283539911501</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA45">
+        <v>5</v>
+      </c>
+      <c r="AB45">
+        <v>6.9018673355853997</v>
+      </c>
+      <c r="AC45">
+        <v>0.93193298466954</v>
+      </c>
+      <c r="AD45">
+        <v>2.0543041206680401</v>
+      </c>
+      <c r="AE45">
+        <v>-1.5390479040956</v>
+      </c>
+      <c r="AF45">
+        <v>-2.1892557432781099</v>
+      </c>
+      <c r="AG45">
+        <v>-1.0859364515133001</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI45">
+        <v>5</v>
+      </c>
+      <c r="AJ45" s="216">
+        <v>7.3023573207795599E-6</v>
+      </c>
+      <c r="AK45">
+        <v>0.36716488532071501</v>
+      </c>
+      <c r="AL45">
+        <v>5.9110064719953101E-2</v>
+      </c>
+      <c r="AM45">
+        <v>0.14608463460339499</v>
+      </c>
+      <c r="AN45">
+        <v>4.6017172714524802E-2</v>
+      </c>
+      <c r="AO45">
+        <v>0.295852126194455</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ45">
+        <v>0.44658155400981497</v>
+      </c>
+      <c r="AR45">
+        <v>0.248932109013321</v>
+      </c>
+      <c r="AS45">
+        <v>0.489227140728621</v>
+      </c>
+      <c r="AT45">
+        <v>0.10539309926361801</v>
+      </c>
+      <c r="AU45">
+        <v>35.026906573944899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A46" s="211"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="212"/>
+      <c r="I46" t="s">
+        <v>529</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>1.7233826710923099</v>
+      </c>
+      <c r="M46">
+        <v>0.110692429317949</v>
+      </c>
+      <c r="N46">
+        <v>0.45023300043589698</v>
+      </c>
+      <c r="O46" t="s">
+        <v>207</v>
+      </c>
+      <c r="P46">
+        <v>-0.68580888443589705</v>
+      </c>
+      <c r="Q46">
+        <v>-0.26356325351282101</v>
+      </c>
+      <c r="R46" t="s">
+        <v>207</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>0.27189998794528097</v>
+      </c>
+      <c r="U46">
+        <v>0.31415305525919301</v>
+      </c>
+      <c r="V46">
+        <v>0.28799233913345701</v>
+      </c>
+      <c r="W46" t="s">
+        <v>207</v>
+      </c>
+      <c r="X46">
+        <v>0.28799233913345701</v>
+      </c>
+      <c r="Y46">
+        <v>0.26869910527420199</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA46">
+        <v>6</v>
+      </c>
+      <c r="AB46">
+        <v>6.3382962394214299</v>
+      </c>
+      <c r="AC46">
+        <v>0.35235191084365403</v>
+      </c>
+      <c r="AD46">
+        <v>1.56335061477888</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF46">
+        <v>-2.3813441930415</v>
+      </c>
+      <c r="AG46">
+        <v>-0.98088623422790799</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI46">
+        <v>6</v>
+      </c>
+      <c r="AJ46" s="216">
+        <v>9.8490146324083408E-6</v>
+      </c>
+      <c r="AK46">
+        <v>0.72917273552699402</v>
+      </c>
+      <c r="AL46">
+        <v>0.13753094089894999</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN46">
+        <v>3.0011987967771402E-2</v>
+      </c>
+      <c r="AO46">
+        <v>0.341249026875589</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ46">
+        <v>0.310497952544802</v>
+      </c>
+      <c r="AR46">
+        <v>0.13812244068100299</v>
+      </c>
+      <c r="AS46">
+        <v>0.51731462775702297</v>
+      </c>
+      <c r="AT46">
+        <v>0.177975649143921</v>
+      </c>
+      <c r="AU46">
+        <v>38.202441309067702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A47" s="211"/>
+      <c r="B47" s="208"/>
+      <c r="C47" s="212"/>
+      <c r="I47" t="s">
+        <v>530</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>1.58402931316364</v>
+      </c>
+      <c r="M47">
+        <v>0.32053517056363701</v>
+      </c>
+      <c r="N47">
+        <v>0.54589498962727301</v>
+      </c>
+      <c r="O47">
+        <v>-0.51616860181818203</v>
+      </c>
+      <c r="P47" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>207</v>
+      </c>
+      <c r="R47" t="s">
+        <v>207</v>
+      </c>
+      <c r="S47">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>0.242450193784322</v>
+      </c>
+      <c r="U47">
+        <v>0.33912895719401398</v>
+      </c>
+      <c r="V47">
+        <v>0.30751016732883901</v>
+      </c>
+      <c r="W47">
+        <v>0.25277180047481002</v>
+      </c>
+      <c r="X47" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA47">
+        <v>7</v>
+      </c>
+      <c r="AB47">
+        <v>6.5334215182057296</v>
+      </c>
+      <c r="AC47">
+        <v>0.94517192874290701</v>
+      </c>
+      <c r="AD47">
+        <v>1.7752095625622499</v>
+      </c>
+      <c r="AE47">
+        <v>-2.0420339644240499</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI47">
+        <v>7</v>
+      </c>
+      <c r="AJ47" s="216">
+        <v>6.8908241431018203E-6</v>
+      </c>
+      <c r="AK47">
+        <v>0.358626994363826</v>
+      </c>
+      <c r="AL47">
+        <v>9.4885928884325302E-2</v>
+      </c>
+      <c r="AM47">
+        <v>5.7990775434404999E-2</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ47">
+        <v>0.25709306373299601</v>
+      </c>
+      <c r="AR47">
+        <v>0.117798013182932</v>
+      </c>
+      <c r="AS47">
+        <v>0.53021860181176195</v>
+      </c>
+      <c r="AT47">
+        <v>0.17956326246146201</v>
+      </c>
+      <c r="AU47">
+        <v>36.916034252940399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A48" s="211"/>
+      <c r="B48" s="208"/>
+      <c r="C48" s="212"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="211"/>
+      <c r="B49" s="208"/>
+      <c r="C49" s="212"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="211"/>
+      <c r="B50" s="208"/>
+      <c r="C50" s="212"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="211"/>
+      <c r="B51" s="208"/>
+      <c r="C51" s="212"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="211"/>
+      <c r="B52" s="208"/>
+      <c r="C52" s="212"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="211"/>
+      <c r="B53" s="208"/>
+      <c r="C53" s="212"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="211"/>
+      <c r="B54" s="208"/>
+      <c r="C54" s="212"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="211"/>
+      <c r="B55" s="208"/>
+      <c r="C55" s="212"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="211"/>
+      <c r="B56" s="208"/>
+      <c r="C56" s="212"/>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="213"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="215"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H21:N30"/>
     <mergeCell ref="B32:C36"/>
+    <mergeCell ref="A40:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5524,7 +12047,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6970,7 +13493,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8901,10 +15424,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFECDB28-21CC-4B19-A248-8F760787A475}">
-  <dimension ref="A5:J120"/>
+  <dimension ref="A3:J120"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="A27" sqref="A27:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8916,6 +15439,11 @@
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>470</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>0</v>
@@ -10191,7 +16719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE4E8A1-91F0-493C-B6C5-6253FE79D7B7}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -13191,7 +19719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F2400F-2787-4B85-A418-94DEACBFFBA3}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -13705,8 +20233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409CBAA-804C-4C63-AC84-A223161001AB}">
   <dimension ref="A1:AX56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
+    <sheetView topLeftCell="B11" zoomScale="57" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14676,8 +21204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDB8B5-0DDB-4A36-895D-D0E63B9A0FFD}">
   <dimension ref="A1:BH89"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="Z49" zoomScale="54" zoomScaleNormal="36" workbookViewId="0">
+      <selection activeCell="AU49" sqref="AU1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20339,8 +26867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCAFB01-DCB7-4006-A73D-45CA9C1A384C}">
   <dimension ref="A1:BD68"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="98" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView topLeftCell="A13" zoomScale="40" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34:P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20881,15 +27409,15 @@
       <c r="F34" s="118"/>
       <c r="G34" s="118"/>
       <c r="H34" s="119"/>
-      <c r="J34" s="178" t="s">
+      <c r="J34" s="132" t="s">
         <v>368</v>
       </c>
-      <c r="K34" s="179"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="179"/>
-      <c r="O34" s="179"/>
-      <c r="P34" s="181"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="133"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="133"/>
+      <c r="O34" s="133"/>
+      <c r="P34" s="134"/>
       <c r="R34" s="7" t="s">
         <v>294</v>
       </c>
@@ -21015,13 +27543,13 @@
       <c r="F35" s="118"/>
       <c r="G35" s="118"/>
       <c r="H35" s="119"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="183"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="137"/>
       <c r="R35" s="7" t="s">
         <v>295</v>
       </c>
@@ -21147,13 +27675,13 @@
       <c r="F36" s="118"/>
       <c r="G36" s="118"/>
       <c r="H36" s="119"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="180"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="180"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="180"/>
-      <c r="P36" s="183"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="137"/>
       <c r="R36" t="s">
         <v>296</v>
       </c>
@@ -21279,13 +27807,13 @@
       <c r="F37" s="118"/>
       <c r="G37" s="118"/>
       <c r="H37" s="119"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="183"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="137"/>
       <c r="R37" t="s">
         <v>297</v>
       </c>
@@ -21411,13 +27939,13 @@
       <c r="F38" s="118"/>
       <c r="G38" s="118"/>
       <c r="H38" s="119"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
-      <c r="P38" s="183"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
+      <c r="O38" s="136"/>
+      <c r="P38" s="137"/>
       <c r="R38" t="s">
         <v>298</v>
       </c>
@@ -21543,13 +28071,13 @@
       <c r="F39" s="118"/>
       <c r="G39" s="118"/>
       <c r="H39" s="119"/>
-      <c r="J39" s="182"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="183"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
+      <c r="O39" s="136"/>
+      <c r="P39" s="137"/>
       <c r="R39" t="s">
         <v>299</v>
       </c>
@@ -21675,13 +28203,13 @@
       <c r="F40" s="118"/>
       <c r="G40" s="118"/>
       <c r="H40" s="119"/>
-      <c r="J40" s="182"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="180"/>
-      <c r="P40" s="183"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="136"/>
+      <c r="P40" s="137"/>
       <c r="R40" t="s">
         <v>300</v>
       </c>
@@ -21807,13 +28335,13 @@
       <c r="F41" s="118"/>
       <c r="G41" s="118"/>
       <c r="H41" s="119"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="180"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
-      <c r="N41" s="180"/>
-      <c r="O41" s="180"/>
-      <c r="P41" s="183"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="136"/>
+      <c r="P41" s="137"/>
       <c r="R41" t="s">
         <v>301</v>
       </c>
@@ -21939,13 +28467,13 @@
       <c r="F42" s="118"/>
       <c r="G42" s="118"/>
       <c r="H42" s="119"/>
-      <c r="J42" s="182"/>
-      <c r="K42" s="180"/>
-      <c r="L42" s="180"/>
-      <c r="M42" s="180"/>
-      <c r="N42" s="180"/>
-      <c r="O42" s="180"/>
-      <c r="P42" s="183"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="136"/>
+      <c r="P42" s="137"/>
       <c r="R42" t="s">
         <v>302</v>
       </c>
@@ -22071,13 +28599,13 @@
       <c r="F43" s="121"/>
       <c r="G43" s="121"/>
       <c r="H43" s="122"/>
-      <c r="J43" s="184"/>
-      <c r="K43" s="185"/>
-      <c r="L43" s="185"/>
-      <c r="M43" s="185"/>
-      <c r="N43" s="185"/>
-      <c r="O43" s="185"/>
-      <c r="P43" s="186"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="139"/>
+      <c r="P43" s="140"/>
       <c r="R43" t="s">
         <v>303</v>
       </c>
@@ -22984,8 +29512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1892D7A6-F158-4E34-8BD7-49C347222B83}">
   <dimension ref="A1:BA60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="I8" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24195,8 +30723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AF16EE-24C7-49C9-9B7C-B3D94F95E62D}">
   <dimension ref="A1:BE72"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BD39" sqref="BD39"/>
+    <sheetView topLeftCell="A21" zoomScale="43" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24455,114 +30983,114 @@
       <c r="B22" s="94" t="s">
         <v>351</v>
       </c>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="142"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="M22" s="117"/>
       <c r="N22" s="118"/>
       <c r="O22" s="119"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="154"/>
       <c r="M23" s="117"/>
       <c r="N23" s="118"/>
       <c r="O23" s="119"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="143"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="145"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="154"/>
       <c r="M24" s="117"/>
       <c r="N24" s="118"/>
       <c r="O24" s="119"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="154"/>
       <c r="M25" s="117"/>
       <c r="N25" s="118"/>
       <c r="O25" s="119"/>
     </row>
     <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="154"/>
       <c r="M26" s="120"/>
       <c r="N26" s="121"/>
       <c r="O26" s="122"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="145"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="154"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="143"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="145"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="154"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="143"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="154"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="143"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
     </row>
     <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="143"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="145"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
     </row>
     <row r="33" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="154"/>
       <c r="I33" s="68" t="s">
         <v>366</v>
       </c>
@@ -24574,12 +31102,12 @@
       <c r="O33" s="70"/>
     </row>
     <row r="34" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B34" s="143"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="I34" s="71"/>
       <c r="J34" s="72"/>
       <c r="K34" s="72"/>
@@ -24589,12 +31117,12 @@
       <c r="O34" s="73"/>
     </row>
     <row r="35" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B35" s="143"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="145"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="154"/>
       <c r="I35" s="71"/>
       <c r="J35" s="72"/>
       <c r="K35" s="72"/>
@@ -24604,12 +31132,12 @@
       <c r="O35" s="73"/>
     </row>
     <row r="36" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B36" s="143"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="154"/>
       <c r="I36" s="71"/>
       <c r="J36" s="72"/>
       <c r="K36" s="72"/>
@@ -24619,12 +31147,12 @@
       <c r="O36" s="73"/>
     </row>
     <row r="37" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="143"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="I37" s="74"/>
       <c r="J37" s="75"/>
       <c r="K37" s="75"/>
@@ -24634,12 +31162,12 @@
       <c r="O37" s="76"/>
     </row>
     <row r="38" spans="2:57" s="33" customFormat="1" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="146"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="148"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="157"/>
       <c r="O38" s="33" t="s">
         <v>176</v>
       </c>
@@ -24905,13 +31433,13 @@
       </c>
     </row>
     <row r="40" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="141" t="s">
         <v>311</v>
       </c>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="134"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="143"/>
       <c r="O40" s="7" t="s">
         <v>321</v>
       </c>
@@ -25043,11 +31571,11 @@
       </c>
     </row>
     <row r="41" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="137"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="146"/>
       <c r="O41" s="7" t="s">
         <v>322</v>
       </c>
@@ -25179,11 +31707,11 @@
       </c>
     </row>
     <row r="42" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B42" s="135"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="137"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="146"/>
       <c r="O42" s="7" t="s">
         <v>323</v>
       </c>
@@ -25315,11 +31843,11 @@
       </c>
     </row>
     <row r="43" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="137"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="146"/>
       <c r="O43" t="s">
         <v>324</v>
       </c>
@@ -25451,11 +31979,11 @@
       </c>
     </row>
     <row r="44" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B44" s="135"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="146"/>
       <c r="O44" t="s">
         <v>325</v>
       </c>
@@ -25587,11 +32115,11 @@
       </c>
     </row>
     <row r="45" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="146"/>
       <c r="O45" t="s">
         <v>326</v>
       </c>
@@ -25723,11 +32251,11 @@
       </c>
     </row>
     <row r="46" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B46" s="135"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="137"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="146"/>
       <c r="O46" t="s">
         <v>327</v>
       </c>
@@ -25859,11 +32387,11 @@
       </c>
     </row>
     <row r="47" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="137"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="146"/>
       <c r="O47" t="s">
         <v>328</v>
       </c>
@@ -25995,11 +32523,11 @@
       </c>
     </row>
     <row r="48" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B48" s="135"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="137"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="146"/>
       <c r="O48" t="s">
         <v>329</v>
       </c>
@@ -26131,11 +32659,11 @@
       </c>
     </row>
     <row r="49" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B49" s="135"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="137"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="146"/>
       <c r="O49" t="s">
         <v>330</v>
       </c>
@@ -26267,11 +32795,11 @@
       </c>
     </row>
     <row r="50" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B50" s="135"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="137"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="146"/>
       <c r="O50" t="s">
         <v>331</v>
       </c>
@@ -26403,11 +32931,11 @@
       </c>
     </row>
     <row r="51" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B51" s="135"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="137"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="146"/>
       <c r="O51" t="s">
         <v>332</v>
       </c>
@@ -26539,11 +33067,11 @@
       </c>
     </row>
     <row r="52" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B52" s="135"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="137"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="146"/>
       <c r="O52" t="s">
         <v>333</v>
       </c>
@@ -26675,11 +33203,11 @@
       </c>
     </row>
     <row r="53" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B53" s="135"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="137"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="146"/>
       <c r="O53" t="s">
         <v>334</v>
       </c>
@@ -26811,11 +33339,11 @@
       </c>
     </row>
     <row r="54" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B54" s="135"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="137"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="146"/>
       <c r="O54" t="s">
         <v>335</v>
       </c>
@@ -26947,11 +33475,11 @@
       </c>
     </row>
     <row r="55" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B55" s="135"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="137"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="146"/>
       <c r="O55" t="s">
         <v>336</v>
       </c>
@@ -27083,11 +33611,11 @@
       </c>
     </row>
     <row r="56" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B56" s="135"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="137"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="146"/>
       <c r="O56" t="s">
         <v>337</v>
       </c>
@@ -27219,11 +33747,11 @@
       </c>
     </row>
     <row r="57" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B57" s="135"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="137"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="146"/>
       <c r="O57" t="s">
         <v>338</v>
       </c>
@@ -27355,11 +33883,11 @@
       </c>
     </row>
     <row r="58" spans="2:57" x14ac:dyDescent="0.35">
-      <c r="B58" s="135"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="137"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="146"/>
       <c r="O58" t="s">
         <v>339</v>
       </c>
@@ -27491,11 +34019,11 @@
       </c>
     </row>
     <row r="59" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="138"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="140"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="149"/>
       <c r="O59" t="s">
         <v>340</v>
       </c>
@@ -28976,8 +35504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE602D1D-8AD5-4D27-82D9-4C8D4C22D9EE}">
   <dimension ref="A1:BA58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AZ35" sqref="AZ35"/>
+    <sheetView topLeftCell="E8" zoomScale="54" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29118,274 +35646,274 @@
       <c r="S15" s="119"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="158" t="s">
         <v>361</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="159"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="168"/>
       <c r="Q16" s="117"/>
       <c r="R16" s="118"/>
       <c r="S16" s="119"/>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D17" s="160"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="162"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="171"/>
       <c r="Q17" s="117"/>
       <c r="R17" s="118"/>
       <c r="S17" s="119"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D18" s="160"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="162"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="171"/>
       <c r="Q18" s="117"/>
       <c r="R18" s="118"/>
       <c r="S18" s="119"/>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="162"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="171"/>
       <c r="Q19" s="117"/>
       <c r="R19" s="118"/>
       <c r="S19" s="119"/>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D20" s="160"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="162"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="171"/>
       <c r="Q20" s="117"/>
       <c r="R20" s="118"/>
       <c r="S20" s="119"/>
     </row>
     <row r="21" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="162"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="171"/>
       <c r="Q21" s="120"/>
       <c r="R21" s="121"/>
       <c r="S21" s="122"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D22" s="160"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="162"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="171"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D23" s="160"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="162"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="171"/>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D24" s="160"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="162"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="171"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D25" s="160"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="162"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="171"/>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D26" s="160"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="162"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="171"/>
     </row>
     <row r="27" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="160"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="162"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="171"/>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="162"/>
-      <c r="O28" s="166" t="s">
+      <c r="D28" s="169"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="171"/>
+      <c r="O28" s="175" t="s">
         <v>365</v>
       </c>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="168"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="177"/>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D29" s="160"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="162"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="171"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="171"/>
+      <c r="O29" s="178"/>
+      <c r="P29" s="179"/>
+      <c r="Q29" s="179"/>
+      <c r="R29" s="179"/>
+      <c r="S29" s="180"/>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D30" s="160"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="162"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="171"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="171"/>
+      <c r="O30" s="178"/>
+      <c r="P30" s="179"/>
+      <c r="Q30" s="179"/>
+      <c r="R30" s="179"/>
+      <c r="S30" s="180"/>
     </row>
     <row r="31" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="160"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="162"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="173"/>
-      <c r="S31" s="174"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="171"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="183"/>
     </row>
     <row r="32" spans="4:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="160"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="162"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="171"/>
     </row>
     <row r="33" spans="4:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="160"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="162"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="171"/>
     </row>
     <row r="34" spans="4:53" s="33" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D34" s="163"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="165"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="174"/>
       <c r="S34" s="33" t="s">
         <v>176</v>
       </c>
@@ -29710,16 +36238,16 @@
       </c>
     </row>
     <row r="37" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D37" s="149" t="s">
+      <c r="D37" s="158" t="s">
         <v>353</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="151"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="160"/>
       <c r="S37" t="s">
         <v>356</v>
       </c>
@@ -29827,14 +36355,14 @@
       </c>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D38" s="152"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="154"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="163"/>
       <c r="S38" t="s">
         <v>357</v>
       </c>
@@ -29942,14 +36470,14 @@
       </c>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D39" s="152"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="154"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="163"/>
       <c r="S39" t="s">
         <v>358</v>
       </c>
@@ -30057,14 +36585,14 @@
       </c>
     </row>
     <row r="40" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D40" s="152"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="154"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="163"/>
       <c r="S40" t="s">
         <v>359</v>
       </c>
@@ -30172,14 +36700,14 @@
       </c>
     </row>
     <row r="41" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D41" s="152"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="154"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="162"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="162"/>
+      <c r="K41" s="163"/>
       <c r="S41" t="s">
         <v>360</v>
       </c>
@@ -30287,183 +36815,183 @@
       </c>
     </row>
     <row r="42" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D42" s="152"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="154"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="163"/>
     </row>
     <row r="43" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D43" s="152"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="154"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="163"/>
     </row>
     <row r="44" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D44" s="152"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="154"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="163"/>
     </row>
     <row r="45" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D45" s="152"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="154"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="162"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="162"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="163"/>
       <c r="N45" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D46" s="152"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="154"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="163"/>
     </row>
     <row r="47" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D47" s="152"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="154"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="163"/>
       <c r="N47" s="39" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="48" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D48" s="152"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="154"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="163"/>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D49" s="152"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="154"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="162"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="162"/>
+      <c r="J49" s="162"/>
+      <c r="K49" s="163"/>
       <c r="N49" s="47" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D50" s="152"/>
-      <c r="E50" s="153"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="154"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="163"/>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D51" s="152"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="154"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="162"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="162"/>
+      <c r="J51" s="162"/>
+      <c r="K51" s="163"/>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D52" s="152"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="154"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="162"/>
+      <c r="F52" s="162"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="162"/>
+      <c r="K52" s="163"/>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D53" s="152"/>
-      <c r="E53" s="153"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="154"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="162"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="162"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="163"/>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D54" s="152"/>
-      <c r="E54" s="153"/>
-      <c r="F54" s="153"/>
-      <c r="G54" s="153"/>
-      <c r="H54" s="153"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="154"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="162"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="162"/>
+      <c r="J54" s="162"/>
+      <c r="K54" s="163"/>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D55" s="152"/>
-      <c r="E55" s="153"/>
-      <c r="F55" s="153"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="153"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="154"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="162"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="163"/>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D56" s="152"/>
-      <c r="E56" s="153"/>
-      <c r="F56" s="153"/>
-      <c r="G56" s="153"/>
-      <c r="H56" s="153"/>
-      <c r="I56" s="153"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="154"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="163"/>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D57" s="152"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="154"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="163"/>
     </row>
     <row r="58" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D58" s="155"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="157"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="165"/>
+      <c r="K58" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -30483,8 +37011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC6D67-7A81-44C9-9161-BA535FA61732}">
   <dimension ref="A2:I74"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A52" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31092,7 +37620,7 @@
       <c r="G41">
         <v>5</v>
       </c>
-      <c r="I41" s="175" t="s">
+      <c r="I41" s="184" t="s">
         <v>438</v>
       </c>
     </row>
@@ -31112,7 +37640,7 @@
       <c r="G42">
         <v>21</v>
       </c>
-      <c r="I42" s="175"/>
+      <c r="I42" s="184"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C43" s="4"/>
@@ -31122,7 +37650,7 @@
       <c r="G43">
         <v>8</v>
       </c>
-      <c r="I43" s="175"/>
+      <c r="I43" s="184"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C44" s="4"/>
@@ -31132,7 +37660,7 @@
       <c r="G44">
         <v>13</v>
       </c>
-      <c r="I44" s="175"/>
+      <c r="I44" s="184"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
@@ -31150,7 +37678,7 @@
       <c r="G45">
         <v>20</v>
       </c>
-      <c r="I45" s="175"/>
+      <c r="I45" s="184"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C46" s="4"/>
